--- a/nriss-patch-telecom-slicing/ig/StructureDefinition-as-organization.xlsx
+++ b/nriss-patch-telecom-slicing/ig/StructureDefinition-as-organization.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8402" uniqueCount="845">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8402" uniqueCount="844">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-11T14:18:11+00:00</t>
+    <t>2024-10-11T14:28:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2195,10 +2195,6 @@
   </si>
   <si>
     <t>Human contact for the organization.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">profile:$this.resolve()}
-</t>
   </si>
   <si>
     <t>cpt-2:A system is required if a value is provided. {value.empty() or system.exists()}
@@ -26259,7 +26255,7 @@
         <v>79</v>
       </c>
       <c r="AB194" t="s" s="2">
-        <v>702</v>
+        <v>542</v>
       </c>
       <c r="AC194" s="2"/>
       <c r="AD194" t="s" s="2">
@@ -26281,22 +26277,22 @@
         <v>208</v>
       </c>
       <c r="AJ194" t="s" s="2">
+        <v>702</v>
+      </c>
+      <c r="AK194" t="s" s="2">
         <v>703</v>
       </c>
-      <c r="AK194" t="s" s="2">
+      <c r="AL194" t="s" s="2">
         <v>704</v>
       </c>
-      <c r="AL194" t="s" s="2">
+      <c r="AM194" t="s" s="2">
         <v>705</v>
       </c>
-      <c r="AM194" t="s" s="2">
+      <c r="AN194" t="s" s="2">
         <v>706</v>
       </c>
-      <c r="AN194" t="s" s="2">
+      <c r="AO194" t="s" s="2">
         <v>707</v>
-      </c>
-      <c r="AO194" t="s" s="2">
-        <v>708</v>
       </c>
       <c r="AP194" t="s" s="2">
         <v>79</v>
@@ -26304,10 +26300,10 @@
     </row>
     <row r="195" hidden="true">
       <c r="A195" t="s" s="2">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B195" t="s" s="2">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C195" s="2"/>
       <c r="D195" t="s" s="2">
@@ -26422,10 +26418,10 @@
     </row>
     <row r="196" hidden="true">
       <c r="A196" t="s" s="2">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B196" t="s" s="2">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="C196" s="2"/>
       <c r="D196" t="s" s="2">
@@ -26542,13 +26538,13 @@
     </row>
     <row r="197" hidden="true">
       <c r="A197" t="s" s="2">
+        <v>710</v>
+      </c>
+      <c r="B197" t="s" s="2">
+        <v>709</v>
+      </c>
+      <c r="C197" t="s" s="2">
         <v>711</v>
-      </c>
-      <c r="B197" t="s" s="2">
-        <v>710</v>
-      </c>
-      <c r="C197" t="s" s="2">
-        <v>712</v>
       </c>
       <c r="D197" t="s" s="2">
         <v>79</v>
@@ -26570,13 +26566,13 @@
         <v>79</v>
       </c>
       <c r="K197" t="s" s="2">
+        <v>712</v>
+      </c>
+      <c r="L197" t="s" s="2">
         <v>713</v>
       </c>
-      <c r="L197" t="s" s="2">
+      <c r="M197" t="s" s="2">
         <v>714</v>
-      </c>
-      <c r="M197" t="s" s="2">
-        <v>715</v>
       </c>
       <c r="N197" s="2"/>
       <c r="O197" s="2"/>
@@ -26662,10 +26658,10 @@
     </row>
     <row r="198" hidden="true">
       <c r="A198" t="s" s="2">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B198" t="s" s="2">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="C198" s="2"/>
       <c r="D198" t="s" s="2">
@@ -26691,10 +26687,10 @@
         <v>176</v>
       </c>
       <c r="L198" t="s" s="2">
+        <v>716</v>
+      </c>
+      <c r="M198" t="s" s="2">
         <v>717</v>
-      </c>
-      <c r="M198" t="s" s="2">
-        <v>718</v>
       </c>
       <c r="N198" s="2"/>
       <c r="O198" s="2"/>
@@ -26724,37 +26720,37 @@
         <v>330</v>
       </c>
       <c r="Y198" t="s" s="2">
+        <v>718</v>
+      </c>
+      <c r="Z198" t="s" s="2">
         <v>719</v>
       </c>
-      <c r="Z198" t="s" s="2">
+      <c r="AA198" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB198" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC198" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD198" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE198" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF198" t="s" s="2">
         <v>720</v>
       </c>
-      <c r="AA198" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB198" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC198" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD198" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE198" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF198" t="s" s="2">
+      <c r="AG198" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH198" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI198" t="s" s="2">
         <v>721</v>
-      </c>
-      <c r="AG198" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH198" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AI198" t="s" s="2">
-        <v>722</v>
       </c>
       <c r="AJ198" t="s" s="2">
         <v>103</v>
@@ -26766,13 +26762,13 @@
         <v>79</v>
       </c>
       <c r="AM198" t="s" s="2">
+        <v>722</v>
+      </c>
+      <c r="AN198" t="s" s="2">
         <v>723</v>
       </c>
-      <c r="AN198" t="s" s="2">
+      <c r="AO198" t="s" s="2">
         <v>724</v>
-      </c>
-      <c r="AO198" t="s" s="2">
-        <v>725</v>
       </c>
       <c r="AP198" t="s" s="2">
         <v>79</v>
@@ -26780,10 +26776,10 @@
     </row>
     <row r="199" hidden="true">
       <c r="A199" t="s" s="2">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B199" t="s" s="2">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="C199" s="2"/>
       <c r="D199" t="s" s="2">
@@ -26809,16 +26805,16 @@
         <v>105</v>
       </c>
       <c r="L199" t="s" s="2">
+        <v>726</v>
+      </c>
+      <c r="M199" t="s" s="2">
         <v>727</v>
       </c>
-      <c r="M199" t="s" s="2">
+      <c r="N199" t="s" s="2">
         <v>728</v>
       </c>
-      <c r="N199" t="s" s="2">
+      <c r="O199" t="s" s="2">
         <v>729</v>
-      </c>
-      <c r="O199" t="s" s="2">
-        <v>730</v>
       </c>
       <c r="P199" t="s" s="2">
         <v>79</v>
@@ -26867,7 +26863,7 @@
         <v>79</v>
       </c>
       <c r="AF199" t="s" s="2">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="AG199" t="s" s="2">
         <v>80</v>
@@ -26888,10 +26884,10 @@
         <v>79</v>
       </c>
       <c r="AM199" t="s" s="2">
+        <v>731</v>
+      </c>
+      <c r="AN199" t="s" s="2">
         <v>732</v>
-      </c>
-      <c r="AN199" t="s" s="2">
-        <v>733</v>
       </c>
       <c r="AO199" t="s" s="2">
         <v>368</v>
@@ -26902,10 +26898,10 @@
     </row>
     <row r="200" hidden="true">
       <c r="A200" t="s" s="2">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="B200" t="s" s="2">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="C200" s="2"/>
       <c r="D200" t="s" s="2">
@@ -26931,16 +26927,16 @@
         <v>176</v>
       </c>
       <c r="L200" t="s" s="2">
+        <v>734</v>
+      </c>
+      <c r="M200" t="s" s="2">
         <v>735</v>
       </c>
-      <c r="M200" t="s" s="2">
+      <c r="N200" t="s" s="2">
         <v>736</v>
       </c>
-      <c r="N200" t="s" s="2">
+      <c r="O200" t="s" s="2">
         <v>737</v>
-      </c>
-      <c r="O200" t="s" s="2">
-        <v>738</v>
       </c>
       <c r="P200" t="s" s="2">
         <v>79</v>
@@ -26968,28 +26964,28 @@
         <v>330</v>
       </c>
       <c r="Y200" t="s" s="2">
+        <v>738</v>
+      </c>
+      <c r="Z200" t="s" s="2">
         <v>739</v>
       </c>
-      <c r="Z200" t="s" s="2">
+      <c r="AA200" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB200" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC200" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD200" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE200" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF200" t="s" s="2">
         <v>740</v>
-      </c>
-      <c r="AA200" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB200" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC200" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD200" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE200" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF200" t="s" s="2">
-        <v>741</v>
       </c>
       <c r="AG200" t="s" s="2">
         <v>80</v>
@@ -27010,13 +27006,13 @@
         <v>79</v>
       </c>
       <c r="AM200" t="s" s="2">
+        <v>741</v>
+      </c>
+      <c r="AN200" t="s" s="2">
         <v>742</v>
       </c>
-      <c r="AN200" t="s" s="2">
+      <c r="AO200" t="s" s="2">
         <v>743</v>
-      </c>
-      <c r="AO200" t="s" s="2">
-        <v>744</v>
       </c>
       <c r="AP200" t="s" s="2">
         <v>79</v>
@@ -27024,10 +27020,10 @@
     </row>
     <row r="201" hidden="true">
       <c r="A201" t="s" s="2">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="B201" t="s" s="2">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="C201" s="2"/>
       <c r="D201" t="s" s="2">
@@ -27050,16 +27046,16 @@
         <v>92</v>
       </c>
       <c r="K201" t="s" s="2">
+        <v>745</v>
+      </c>
+      <c r="L201" t="s" s="2">
         <v>746</v>
       </c>
-      <c r="L201" t="s" s="2">
+      <c r="M201" t="s" s="2">
         <v>747</v>
       </c>
-      <c r="M201" t="s" s="2">
+      <c r="N201" t="s" s="2">
         <v>748</v>
-      </c>
-      <c r="N201" t="s" s="2">
-        <v>749</v>
       </c>
       <c r="O201" s="2"/>
       <c r="P201" t="s" s="2">
@@ -27109,7 +27105,7 @@
         <v>79</v>
       </c>
       <c r="AF201" t="s" s="2">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="AG201" t="s" s="2">
         <v>80</v>
@@ -27144,10 +27140,10 @@
     </row>
     <row r="202" hidden="true">
       <c r="A202" t="s" s="2">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="B202" t="s" s="2">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="C202" s="2"/>
       <c r="D202" t="s" s="2">
@@ -27173,10 +27169,10 @@
         <v>230</v>
       </c>
       <c r="L202" t="s" s="2">
+        <v>751</v>
+      </c>
+      <c r="M202" t="s" s="2">
         <v>752</v>
-      </c>
-      <c r="M202" t="s" s="2">
-        <v>753</v>
       </c>
       <c r="N202" s="2"/>
       <c r="O202" s="2"/>
@@ -27227,7 +27223,7 @@
         <v>79</v>
       </c>
       <c r="AF202" t="s" s="2">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="AG202" t="s" s="2">
         <v>80</v>
@@ -27251,7 +27247,7 @@
         <v>199</v>
       </c>
       <c r="AN202" t="s" s="2">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="AO202" t="s" s="2">
         <v>376</v>
@@ -27262,13 +27258,13 @@
     </row>
     <row r="203" hidden="true">
       <c r="A203" t="s" s="2">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="B203" t="s" s="2">
         <v>696</v>
       </c>
       <c r="C203" t="s" s="2">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="D203" t="s" s="2">
         <v>79</v>
@@ -27290,10 +27286,10 @@
         <v>79</v>
       </c>
       <c r="K203" t="s" s="2">
+        <v>757</v>
+      </c>
+      <c r="L203" t="s" s="2">
         <v>758</v>
-      </c>
-      <c r="L203" t="s" s="2">
-        <v>759</v>
       </c>
       <c r="M203" t="s" s="2">
         <v>699</v>
@@ -27363,22 +27359,22 @@
         <v>208</v>
       </c>
       <c r="AJ203" t="s" s="2">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AK203" t="s" s="2">
+        <v>759</v>
+      </c>
+      <c r="AL203" t="s" s="2">
         <v>760</v>
       </c>
-      <c r="AL203" t="s" s="2">
-        <v>761</v>
-      </c>
       <c r="AM203" t="s" s="2">
+        <v>705</v>
+      </c>
+      <c r="AN203" t="s" s="2">
         <v>706</v>
       </c>
-      <c r="AN203" t="s" s="2">
+      <c r="AO203" t="s" s="2">
         <v>707</v>
-      </c>
-      <c r="AO203" t="s" s="2">
-        <v>708</v>
       </c>
       <c r="AP203" t="s" s="2">
         <v>79</v>
@@ -27386,10 +27382,10 @@
     </row>
     <row r="204" hidden="true">
       <c r="A204" t="s" s="2">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="B204" t="s" s="2">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C204" s="2"/>
       <c r="D204" t="s" s="2">
@@ -27412,19 +27408,19 @@
         <v>79</v>
       </c>
       <c r="K204" t="s" s="2">
+        <v>762</v>
+      </c>
+      <c r="L204" t="s" s="2">
         <v>763</v>
       </c>
-      <c r="L204" t="s" s="2">
+      <c r="M204" t="s" s="2">
         <v>764</v>
       </c>
-      <c r="M204" t="s" s="2">
+      <c r="N204" t="s" s="2">
         <v>765</v>
       </c>
-      <c r="N204" t="s" s="2">
+      <c r="O204" t="s" s="2">
         <v>766</v>
-      </c>
-      <c r="O204" t="s" s="2">
-        <v>767</v>
       </c>
       <c r="P204" t="s" s="2">
         <v>79</v>
@@ -27473,7 +27469,7 @@
         <v>79</v>
       </c>
       <c r="AF204" t="s" s="2">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="AG204" t="s" s="2">
         <v>80</v>
@@ -27485,22 +27481,22 @@
         <v>208</v>
       </c>
       <c r="AJ204" t="s" s="2">
+        <v>767</v>
+      </c>
+      <c r="AK204" t="s" s="2">
         <v>768</v>
       </c>
-      <c r="AK204" t="s" s="2">
+      <c r="AL204" t="s" s="2">
         <v>769</v>
       </c>
-      <c r="AL204" t="s" s="2">
+      <c r="AM204" t="s" s="2">
         <v>770</v>
       </c>
-      <c r="AM204" t="s" s="2">
+      <c r="AN204" t="s" s="2">
         <v>771</v>
       </c>
-      <c r="AN204" t="s" s="2">
+      <c r="AO204" t="s" s="2">
         <v>772</v>
-      </c>
-      <c r="AO204" t="s" s="2">
-        <v>773</v>
       </c>
       <c r="AP204" t="s" s="2">
         <v>79</v>
@@ -27508,10 +27504,10 @@
     </row>
     <row r="205" hidden="true">
       <c r="A205" t="s" s="2">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="B205" t="s" s="2">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="C205" s="2"/>
       <c r="D205" t="s" s="2">
@@ -27534,17 +27530,17 @@
         <v>92</v>
       </c>
       <c r="K205" t="s" s="2">
+        <v>774</v>
+      </c>
+      <c r="L205" t="s" s="2">
         <v>775</v>
       </c>
-      <c r="L205" t="s" s="2">
+      <c r="M205" t="s" s="2">
         <v>776</v>
-      </c>
-      <c r="M205" t="s" s="2">
-        <v>777</v>
       </c>
       <c r="N205" s="2"/>
       <c r="O205" t="s" s="2">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="P205" t="s" s="2">
         <v>79</v>
@@ -27593,7 +27589,7 @@
         <v>79</v>
       </c>
       <c r="AF205" t="s" s="2">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="AG205" t="s" s="2">
         <v>80</v>
@@ -27617,7 +27613,7 @@
         <v>531</v>
       </c>
       <c r="AN205" t="s" s="2">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="AO205" t="s" s="2">
         <v>109</v>
@@ -27628,10 +27624,10 @@
     </row>
     <row r="206" hidden="true">
       <c r="A206" t="s" s="2">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="B206" t="s" s="2">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="C206" s="2"/>
       <c r="D206" t="s" s="2">
@@ -27746,10 +27742,10 @@
     </row>
     <row r="207" hidden="true">
       <c r="A207" t="s" s="2">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="B207" t="s" s="2">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="C207" s="2"/>
       <c r="D207" t="s" s="2">
@@ -27866,10 +27862,10 @@
     </row>
     <row r="208" hidden="true">
       <c r="A208" t="s" s="2">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="B208" t="s" s="2">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="C208" s="2"/>
       <c r="D208" t="s" s="2">
@@ -27895,13 +27891,13 @@
         <v>105</v>
       </c>
       <c r="L208" t="s" s="2">
+        <v>782</v>
+      </c>
+      <c r="M208" t="s" s="2">
         <v>783</v>
       </c>
-      <c r="M208" t="s" s="2">
+      <c r="N208" t="s" s="2">
         <v>784</v>
-      </c>
-      <c r="N208" t="s" s="2">
-        <v>785</v>
       </c>
       <c r="O208" s="2"/>
       <c r="P208" t="s" s="2">
@@ -27951,16 +27947,16 @@
         <v>79</v>
       </c>
       <c r="AF208" t="s" s="2">
+        <v>785</v>
+      </c>
+      <c r="AG208" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH208" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI208" t="s" s="2">
         <v>786</v>
-      </c>
-      <c r="AG208" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH208" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AI208" t="s" s="2">
-        <v>787</v>
       </c>
       <c r="AJ208" t="s" s="2">
         <v>103</v>
@@ -27986,10 +27982,10 @@
     </row>
     <row r="209" hidden="true">
       <c r="A209" t="s" s="2">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="B209" t="s" s="2">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="C209" s="2"/>
       <c r="D209" t="s" s="2">
@@ -28015,13 +28011,13 @@
         <v>138</v>
       </c>
       <c r="L209" t="s" s="2">
+        <v>788</v>
+      </c>
+      <c r="M209" t="s" s="2">
         <v>789</v>
       </c>
-      <c r="M209" t="s" s="2">
+      <c r="N209" t="s" s="2">
         <v>790</v>
-      </c>
-      <c r="N209" t="s" s="2">
-        <v>791</v>
       </c>
       <c r="O209" s="2"/>
       <c r="P209" t="s" s="2">
@@ -28069,7 +28065,7 @@
         <v>79</v>
       </c>
       <c r="AF209" t="s" s="2">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="AG209" t="s" s="2">
         <v>80</v>
@@ -28104,10 +28100,10 @@
     </row>
     <row r="210" hidden="true">
       <c r="A210" t="s" s="2">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="B210" t="s" s="2">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="C210" s="2"/>
       <c r="D210" t="s" s="2">
@@ -28133,13 +28129,13 @@
         <v>303</v>
       </c>
       <c r="L210" t="s" s="2">
+        <v>793</v>
+      </c>
+      <c r="M210" t="s" s="2">
         <v>794</v>
       </c>
-      <c r="M210" t="s" s="2">
+      <c r="N210" t="s" s="2">
         <v>795</v>
-      </c>
-      <c r="N210" t="s" s="2">
-        <v>796</v>
       </c>
       <c r="O210" s="2"/>
       <c r="P210" t="s" s="2">
@@ -28189,7 +28185,7 @@
         <v>79</v>
       </c>
       <c r="AF210" t="s" s="2">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="AG210" t="s" s="2">
         <v>80</v>
@@ -28213,7 +28209,7 @@
         <v>79</v>
       </c>
       <c r="AN210" t="s" s="2">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="AO210" t="s" s="2">
         <v>79</v>
@@ -28224,10 +28220,10 @@
     </row>
     <row r="211" hidden="true">
       <c r="A211" t="s" s="2">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="B211" t="s" s="2">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="C211" s="2"/>
       <c r="D211" t="s" s="2">
@@ -28253,13 +28249,13 @@
         <v>105</v>
       </c>
       <c r="L211" t="s" s="2">
+        <v>799</v>
+      </c>
+      <c r="M211" t="s" s="2">
         <v>800</v>
       </c>
-      <c r="M211" t="s" s="2">
+      <c r="N211" t="s" s="2">
         <v>801</v>
-      </c>
-      <c r="N211" t="s" s="2">
-        <v>802</v>
       </c>
       <c r="O211" s="2"/>
       <c r="P211" t="s" s="2">
@@ -28309,7 +28305,7 @@
         <v>79</v>
       </c>
       <c r="AF211" t="s" s="2">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="AG211" t="s" s="2">
         <v>80</v>
@@ -28344,10 +28340,10 @@
     </row>
     <row r="212" hidden="true">
       <c r="A212" t="s" s="2">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="B212" t="s" s="2">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="C212" s="2"/>
       <c r="D212" t="s" s="2">
@@ -28370,19 +28366,19 @@
         <v>79</v>
       </c>
       <c r="K212" t="s" s="2">
+        <v>804</v>
+      </c>
+      <c r="L212" t="s" s="2">
         <v>805</v>
       </c>
-      <c r="L212" t="s" s="2">
+      <c r="M212" t="s" s="2">
         <v>806</v>
       </c>
-      <c r="M212" t="s" s="2">
+      <c r="N212" t="s" s="2">
         <v>807</v>
       </c>
-      <c r="N212" t="s" s="2">
+      <c r="O212" t="s" s="2">
         <v>808</v>
-      </c>
-      <c r="O212" t="s" s="2">
-        <v>809</v>
       </c>
       <c r="P212" t="s" s="2">
         <v>79</v>
@@ -28431,7 +28427,7 @@
         <v>79</v>
       </c>
       <c r="AF212" t="s" s="2">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="AG212" t="s" s="2">
         <v>80</v>
@@ -28455,7 +28451,7 @@
         <v>79</v>
       </c>
       <c r="AN212" t="s" s="2">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="AO212" t="s" s="2">
         <v>79</v>
@@ -28466,10 +28462,10 @@
     </row>
     <row r="213" hidden="true">
       <c r="A213" t="s" s="2">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="B213" t="s" s="2">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="C213" s="2"/>
       <c r="D213" t="s" s="2">
@@ -28584,10 +28580,10 @@
     </row>
     <row r="214" hidden="true">
       <c r="A214" t="s" s="2">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="B214" t="s" s="2">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="C214" s="2"/>
       <c r="D214" t="s" s="2">
@@ -28704,14 +28700,14 @@
     </row>
     <row r="215" hidden="true">
       <c r="A215" t="s" s="2">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="B215" t="s" s="2">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C215" s="2"/>
       <c r="D215" t="s" s="2">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="E215" s="2"/>
       <c r="F215" t="s" s="2">
@@ -28733,10 +28729,10 @@
         <v>112</v>
       </c>
       <c r="L215" t="s" s="2">
+        <v>814</v>
+      </c>
+      <c r="M215" t="s" s="2">
         <v>815</v>
-      </c>
-      <c r="M215" t="s" s="2">
-        <v>816</v>
       </c>
       <c r="N215" t="s" s="2">
         <v>115</v>
@@ -28791,7 +28787,7 @@
         <v>79</v>
       </c>
       <c r="AF215" t="s" s="2">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="AG215" t="s" s="2">
         <v>80</v>
@@ -28826,10 +28822,10 @@
     </row>
     <row r="216" hidden="true">
       <c r="A216" t="s" s="2">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B216" t="s" s="2">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="C216" s="2"/>
       <c r="D216" t="s" s="2">
@@ -28855,14 +28851,14 @@
         <v>337</v>
       </c>
       <c r="L216" t="s" s="2">
+        <v>818</v>
+      </c>
+      <c r="M216" t="s" s="2">
         <v>819</v>
-      </c>
-      <c r="M216" t="s" s="2">
-        <v>820</v>
       </c>
       <c r="N216" s="2"/>
       <c r="O216" t="s" s="2">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="P216" t="s" s="2">
         <v>79</v>
@@ -28890,11 +28886,11 @@
         <v>158</v>
       </c>
       <c r="Y216" t="s" s="2">
+        <v>821</v>
+      </c>
+      <c r="Z216" t="s" s="2">
         <v>822</v>
       </c>
-      <c r="Z216" t="s" s="2">
-        <v>823</v>
-      </c>
       <c r="AA216" t="s" s="2">
         <v>79</v>
       </c>
@@ -28911,7 +28907,7 @@
         <v>79</v>
       </c>
       <c r="AF216" t="s" s="2">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="AG216" t="s" s="2">
         <v>80</v>
@@ -28935,7 +28931,7 @@
         <v>79</v>
       </c>
       <c r="AN216" t="s" s="2">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="AO216" t="s" s="2">
         <v>79</v>
@@ -28946,10 +28942,10 @@
     </row>
     <row r="217" hidden="true">
       <c r="A217" t="s" s="2">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="B217" t="s" s="2">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="C217" s="2"/>
       <c r="D217" t="s" s="2">
@@ -28972,17 +28968,17 @@
         <v>79</v>
       </c>
       <c r="K217" t="s" s="2">
+        <v>825</v>
+      </c>
+      <c r="L217" t="s" s="2">
         <v>826</v>
       </c>
-      <c r="L217" t="s" s="2">
+      <c r="M217" t="s" s="2">
         <v>827</v>
-      </c>
-      <c r="M217" t="s" s="2">
-        <v>828</v>
       </c>
       <c r="N217" s="2"/>
       <c r="O217" t="s" s="2">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="P217" t="s" s="2">
         <v>79</v>
@@ -29031,7 +29027,7 @@
         <v>79</v>
       </c>
       <c r="AF217" t="s" s="2">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="AG217" t="s" s="2">
         <v>80</v>
@@ -29052,10 +29048,10 @@
         <v>79</v>
       </c>
       <c r="AM217" t="s" s="2">
+        <v>829</v>
+      </c>
+      <c r="AN217" t="s" s="2">
         <v>830</v>
-      </c>
-      <c r="AN217" t="s" s="2">
-        <v>831</v>
       </c>
       <c r="AO217" t="s" s="2">
         <v>79</v>
@@ -29066,10 +29062,10 @@
     </row>
     <row r="218" hidden="true">
       <c r="A218" t="s" s="2">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="B218" t="s" s="2">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="C218" s="2"/>
       <c r="D218" t="s" s="2">
@@ -29095,14 +29091,14 @@
         <v>697</v>
       </c>
       <c r="L218" t="s" s="2">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="M218" t="s" s="2">
         <v>699</v>
       </c>
       <c r="N218" s="2"/>
       <c r="O218" t="s" s="2">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="P218" t="s" s="2">
         <v>79</v>
@@ -29151,7 +29147,7 @@
         <v>79</v>
       </c>
       <c r="AF218" t="s" s="2">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="AG218" t="s" s="2">
         <v>80</v>
@@ -29163,7 +29159,7 @@
         <v>208</v>
       </c>
       <c r="AJ218" t="s" s="2">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="AK218" t="s" s="2">
         <v>79</v>
@@ -29172,13 +29168,13 @@
         <v>79</v>
       </c>
       <c r="AM218" t="s" s="2">
+        <v>705</v>
+      </c>
+      <c r="AN218" t="s" s="2">
         <v>706</v>
       </c>
-      <c r="AN218" t="s" s="2">
+      <c r="AO218" t="s" s="2">
         <v>707</v>
-      </c>
-      <c r="AO218" t="s" s="2">
-        <v>708</v>
       </c>
       <c r="AP218" t="s" s="2">
         <v>79</v>
@@ -29186,10 +29182,10 @@
     </row>
     <row r="219" hidden="true">
       <c r="A219" t="s" s="2">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="B219" t="s" s="2">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="C219" s="2"/>
       <c r="D219" t="s" s="2">
@@ -29212,19 +29208,19 @@
         <v>79</v>
       </c>
       <c r="K219" t="s" s="2">
+        <v>836</v>
+      </c>
+      <c r="L219" t="s" s="2">
         <v>837</v>
       </c>
-      <c r="L219" t="s" s="2">
+      <c r="M219" t="s" s="2">
+        <v>764</v>
+      </c>
+      <c r="N219" t="s" s="2">
+        <v>765</v>
+      </c>
+      <c r="O219" t="s" s="2">
         <v>838</v>
-      </c>
-      <c r="M219" t="s" s="2">
-        <v>765</v>
-      </c>
-      <c r="N219" t="s" s="2">
-        <v>766</v>
-      </c>
-      <c r="O219" t="s" s="2">
-        <v>839</v>
       </c>
       <c r="P219" t="s" s="2">
         <v>79</v>
@@ -29273,7 +29269,7 @@
         <v>79</v>
       </c>
       <c r="AF219" t="s" s="2">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="AG219" t="s" s="2">
         <v>80</v>
@@ -29294,13 +29290,13 @@
         <v>79</v>
       </c>
       <c r="AM219" t="s" s="2">
+        <v>770</v>
+      </c>
+      <c r="AN219" t="s" s="2">
         <v>771</v>
       </c>
-      <c r="AN219" t="s" s="2">
+      <c r="AO219" t="s" s="2">
         <v>772</v>
-      </c>
-      <c r="AO219" t="s" s="2">
-        <v>773</v>
       </c>
       <c r="AP219" t="s" s="2">
         <v>79</v>
@@ -29308,10 +29304,10 @@
     </row>
     <row r="220" hidden="true">
       <c r="A220" t="s" s="2">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="B220" t="s" s="2">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="C220" s="2"/>
       <c r="D220" t="s" s="2">
@@ -29334,17 +29330,17 @@
         <v>79</v>
       </c>
       <c r="K220" t="s" s="2">
+        <v>840</v>
+      </c>
+      <c r="L220" t="s" s="2">
         <v>841</v>
       </c>
-      <c r="L220" t="s" s="2">
+      <c r="M220" t="s" s="2">
         <v>842</v>
-      </c>
-      <c r="M220" t="s" s="2">
-        <v>843</v>
       </c>
       <c r="N220" s="2"/>
       <c r="O220" t="s" s="2">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="P220" t="s" s="2">
         <v>79</v>
@@ -29393,7 +29389,7 @@
         <v>79</v>
       </c>
       <c r="AF220" t="s" s="2">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="AG220" t="s" s="2">
         <v>80</v>

--- a/nriss-patch-telecom-slicing/ig/StructureDefinition-as-organization.xlsx
+++ b/nriss-patch-telecom-slicing/ig/StructureDefinition-as-organization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-11T14:28:17+00:00</t>
+    <t>2024-10-11T14:48:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nriss-patch-telecom-slicing/ig/StructureDefinition-as-organization.xlsx
+++ b/nriss-patch-telecom-slicing/ig/StructureDefinition-as-organization.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8402" uniqueCount="844">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8402" uniqueCount="845">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-11T14:48:45+00:00</t>
+    <t>2024-10-12T09:26:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2195,6 +2195,10 @@
   </si>
   <si>
     <t>Human contact for the organization.</t>
+  </si>
+  <si>
+    <t>pattern:system}
+pattern:extension('https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-contact-point-email-type').value}</t>
   </si>
   <si>
     <t>cpt-2:A system is required if a value is provided. {value.empty() or system.exists()}
@@ -2996,7 +3000,7 @@
     <col min="25" max="25" width="98.61328125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="108.3828125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="96.68359375" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
@@ -26255,7 +26259,7 @@
         <v>79</v>
       </c>
       <c r="AB194" t="s" s="2">
-        <v>542</v>
+        <v>702</v>
       </c>
       <c r="AC194" s="2"/>
       <c r="AD194" t="s" s="2">
@@ -26277,22 +26281,22 @@
         <v>208</v>
       </c>
       <c r="AJ194" t="s" s="2">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="AK194" t="s" s="2">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="AL194" t="s" s="2">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="AM194" t="s" s="2">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="AN194" t="s" s="2">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="AO194" t="s" s="2">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="AP194" t="s" s="2">
         <v>79</v>
@@ -26300,10 +26304,10 @@
     </row>
     <row r="195" hidden="true">
       <c r="A195" t="s" s="2">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="B195" t="s" s="2">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="C195" s="2"/>
       <c r="D195" t="s" s="2">
@@ -26418,10 +26422,10 @@
     </row>
     <row r="196" hidden="true">
       <c r="A196" t="s" s="2">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="B196" t="s" s="2">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="C196" s="2"/>
       <c r="D196" t="s" s="2">
@@ -26538,13 +26542,13 @@
     </row>
     <row r="197" hidden="true">
       <c r="A197" t="s" s="2">
+        <v>711</v>
+      </c>
+      <c r="B197" t="s" s="2">
         <v>710</v>
       </c>
-      <c r="B197" t="s" s="2">
-        <v>709</v>
-      </c>
       <c r="C197" t="s" s="2">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="D197" t="s" s="2">
         <v>79</v>
@@ -26566,13 +26570,13 @@
         <v>79</v>
       </c>
       <c r="K197" t="s" s="2">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="L197" t="s" s="2">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="M197" t="s" s="2">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="N197" s="2"/>
       <c r="O197" s="2"/>
@@ -26658,10 +26662,10 @@
     </row>
     <row r="198" hidden="true">
       <c r="A198" t="s" s="2">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="B198" t="s" s="2">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="C198" s="2"/>
       <c r="D198" t="s" s="2">
@@ -26687,10 +26691,10 @@
         <v>176</v>
       </c>
       <c r="L198" t="s" s="2">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="M198" t="s" s="2">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="N198" s="2"/>
       <c r="O198" s="2"/>
@@ -26720,10 +26724,10 @@
         <v>330</v>
       </c>
       <c r="Y198" t="s" s="2">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="Z198" t="s" s="2">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="AA198" t="s" s="2">
         <v>79</v>
@@ -26741,7 +26745,7 @@
         <v>79</v>
       </c>
       <c r="AF198" t="s" s="2">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="AG198" t="s" s="2">
         <v>80</v>
@@ -26750,7 +26754,7 @@
         <v>91</v>
       </c>
       <c r="AI198" t="s" s="2">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="AJ198" t="s" s="2">
         <v>103</v>
@@ -26762,13 +26766,13 @@
         <v>79</v>
       </c>
       <c r="AM198" t="s" s="2">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="AN198" t="s" s="2">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="AO198" t="s" s="2">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="AP198" t="s" s="2">
         <v>79</v>
@@ -26776,10 +26780,10 @@
     </row>
     <row r="199" hidden="true">
       <c r="A199" t="s" s="2">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="B199" t="s" s="2">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="C199" s="2"/>
       <c r="D199" t="s" s="2">
@@ -26805,16 +26809,16 @@
         <v>105</v>
       </c>
       <c r="L199" t="s" s="2">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="M199" t="s" s="2">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="N199" t="s" s="2">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="O199" t="s" s="2">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="P199" t="s" s="2">
         <v>79</v>
@@ -26863,7 +26867,7 @@
         <v>79</v>
       </c>
       <c r="AF199" t="s" s="2">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="AG199" t="s" s="2">
         <v>80</v>
@@ -26884,10 +26888,10 @@
         <v>79</v>
       </c>
       <c r="AM199" t="s" s="2">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="AN199" t="s" s="2">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="AO199" t="s" s="2">
         <v>368</v>
@@ -26898,10 +26902,10 @@
     </row>
     <row r="200" hidden="true">
       <c r="A200" t="s" s="2">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="B200" t="s" s="2">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="C200" s="2"/>
       <c r="D200" t="s" s="2">
@@ -26927,16 +26931,16 @@
         <v>176</v>
       </c>
       <c r="L200" t="s" s="2">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="M200" t="s" s="2">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="N200" t="s" s="2">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="O200" t="s" s="2">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="P200" t="s" s="2">
         <v>79</v>
@@ -26964,10 +26968,10 @@
         <v>330</v>
       </c>
       <c r="Y200" t="s" s="2">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="Z200" t="s" s="2">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="AA200" t="s" s="2">
         <v>79</v>
@@ -26985,7 +26989,7 @@
         <v>79</v>
       </c>
       <c r="AF200" t="s" s="2">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="AG200" t="s" s="2">
         <v>80</v>
@@ -27006,13 +27010,13 @@
         <v>79</v>
       </c>
       <c r="AM200" t="s" s="2">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="AN200" t="s" s="2">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="AO200" t="s" s="2">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="AP200" t="s" s="2">
         <v>79</v>
@@ -27020,10 +27024,10 @@
     </row>
     <row r="201" hidden="true">
       <c r="A201" t="s" s="2">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="B201" t="s" s="2">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="C201" s="2"/>
       <c r="D201" t="s" s="2">
@@ -27046,16 +27050,16 @@
         <v>92</v>
       </c>
       <c r="K201" t="s" s="2">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="L201" t="s" s="2">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="M201" t="s" s="2">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="N201" t="s" s="2">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="O201" s="2"/>
       <c r="P201" t="s" s="2">
@@ -27105,7 +27109,7 @@
         <v>79</v>
       </c>
       <c r="AF201" t="s" s="2">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="AG201" t="s" s="2">
         <v>80</v>
@@ -27140,10 +27144,10 @@
     </row>
     <row r="202" hidden="true">
       <c r="A202" t="s" s="2">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="B202" t="s" s="2">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="C202" s="2"/>
       <c r="D202" t="s" s="2">
@@ -27169,10 +27173,10 @@
         <v>230</v>
       </c>
       <c r="L202" t="s" s="2">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="M202" t="s" s="2">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="N202" s="2"/>
       <c r="O202" s="2"/>
@@ -27223,7 +27227,7 @@
         <v>79</v>
       </c>
       <c r="AF202" t="s" s="2">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="AG202" t="s" s="2">
         <v>80</v>
@@ -27247,7 +27251,7 @@
         <v>199</v>
       </c>
       <c r="AN202" t="s" s="2">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="AO202" t="s" s="2">
         <v>376</v>
@@ -27258,13 +27262,13 @@
     </row>
     <row r="203" hidden="true">
       <c r="A203" t="s" s="2">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="B203" t="s" s="2">
         <v>696</v>
       </c>
       <c r="C203" t="s" s="2">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="D203" t="s" s="2">
         <v>79</v>
@@ -27286,10 +27290,10 @@
         <v>79</v>
       </c>
       <c r="K203" t="s" s="2">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="L203" t="s" s="2">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="M203" t="s" s="2">
         <v>699</v>
@@ -27359,22 +27363,22 @@
         <v>208</v>
       </c>
       <c r="AJ203" t="s" s="2">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="AK203" t="s" s="2">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="AL203" t="s" s="2">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="AM203" t="s" s="2">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="AN203" t="s" s="2">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="AO203" t="s" s="2">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="AP203" t="s" s="2">
         <v>79</v>
@@ -27382,10 +27386,10 @@
     </row>
     <row r="204" hidden="true">
       <c r="A204" t="s" s="2">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="B204" t="s" s="2">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="C204" s="2"/>
       <c r="D204" t="s" s="2">
@@ -27408,19 +27412,19 @@
         <v>79</v>
       </c>
       <c r="K204" t="s" s="2">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="L204" t="s" s="2">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="M204" t="s" s="2">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="N204" t="s" s="2">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="O204" t="s" s="2">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="P204" t="s" s="2">
         <v>79</v>
@@ -27469,7 +27473,7 @@
         <v>79</v>
       </c>
       <c r="AF204" t="s" s="2">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="AG204" t="s" s="2">
         <v>80</v>
@@ -27481,22 +27485,22 @@
         <v>208</v>
       </c>
       <c r="AJ204" t="s" s="2">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="AK204" t="s" s="2">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="AL204" t="s" s="2">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="AM204" t="s" s="2">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="AN204" t="s" s="2">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="AO204" t="s" s="2">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="AP204" t="s" s="2">
         <v>79</v>
@@ -27504,10 +27508,10 @@
     </row>
     <row r="205" hidden="true">
       <c r="A205" t="s" s="2">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="B205" t="s" s="2">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="C205" s="2"/>
       <c r="D205" t="s" s="2">
@@ -27530,17 +27534,17 @@
         <v>92</v>
       </c>
       <c r="K205" t="s" s="2">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="L205" t="s" s="2">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="M205" t="s" s="2">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="N205" s="2"/>
       <c r="O205" t="s" s="2">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="P205" t="s" s="2">
         <v>79</v>
@@ -27589,7 +27593,7 @@
         <v>79</v>
       </c>
       <c r="AF205" t="s" s="2">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="AG205" t="s" s="2">
         <v>80</v>
@@ -27613,7 +27617,7 @@
         <v>531</v>
       </c>
       <c r="AN205" t="s" s="2">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="AO205" t="s" s="2">
         <v>109</v>
@@ -27624,10 +27628,10 @@
     </row>
     <row r="206" hidden="true">
       <c r="A206" t="s" s="2">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="B206" t="s" s="2">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="C206" s="2"/>
       <c r="D206" t="s" s="2">
@@ -27742,10 +27746,10 @@
     </row>
     <row r="207" hidden="true">
       <c r="A207" t="s" s="2">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="B207" t="s" s="2">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="C207" s="2"/>
       <c r="D207" t="s" s="2">
@@ -27862,10 +27866,10 @@
     </row>
     <row r="208" hidden="true">
       <c r="A208" t="s" s="2">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="B208" t="s" s="2">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="C208" s="2"/>
       <c r="D208" t="s" s="2">
@@ -27891,13 +27895,13 @@
         <v>105</v>
       </c>
       <c r="L208" t="s" s="2">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="M208" t="s" s="2">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="N208" t="s" s="2">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="O208" s="2"/>
       <c r="P208" t="s" s="2">
@@ -27947,7 +27951,7 @@
         <v>79</v>
       </c>
       <c r="AF208" t="s" s="2">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="AG208" t="s" s="2">
         <v>80</v>
@@ -27956,7 +27960,7 @@
         <v>91</v>
       </c>
       <c r="AI208" t="s" s="2">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="AJ208" t="s" s="2">
         <v>103</v>
@@ -27982,10 +27986,10 @@
     </row>
     <row r="209" hidden="true">
       <c r="A209" t="s" s="2">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="B209" t="s" s="2">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="C209" s="2"/>
       <c r="D209" t="s" s="2">
@@ -28011,13 +28015,13 @@
         <v>138</v>
       </c>
       <c r="L209" t="s" s="2">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="M209" t="s" s="2">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="N209" t="s" s="2">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="O209" s="2"/>
       <c r="P209" t="s" s="2">
@@ -28065,7 +28069,7 @@
         <v>79</v>
       </c>
       <c r="AF209" t="s" s="2">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="AG209" t="s" s="2">
         <v>80</v>
@@ -28100,10 +28104,10 @@
     </row>
     <row r="210" hidden="true">
       <c r="A210" t="s" s="2">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="B210" t="s" s="2">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="C210" s="2"/>
       <c r="D210" t="s" s="2">
@@ -28129,13 +28133,13 @@
         <v>303</v>
       </c>
       <c r="L210" t="s" s="2">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="M210" t="s" s="2">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="N210" t="s" s="2">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="O210" s="2"/>
       <c r="P210" t="s" s="2">
@@ -28185,7 +28189,7 @@
         <v>79</v>
       </c>
       <c r="AF210" t="s" s="2">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="AG210" t="s" s="2">
         <v>80</v>
@@ -28209,7 +28213,7 @@
         <v>79</v>
       </c>
       <c r="AN210" t="s" s="2">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="AO210" t="s" s="2">
         <v>79</v>
@@ -28220,10 +28224,10 @@
     </row>
     <row r="211" hidden="true">
       <c r="A211" t="s" s="2">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="B211" t="s" s="2">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="C211" s="2"/>
       <c r="D211" t="s" s="2">
@@ -28249,13 +28253,13 @@
         <v>105</v>
       </c>
       <c r="L211" t="s" s="2">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="M211" t="s" s="2">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="N211" t="s" s="2">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="O211" s="2"/>
       <c r="P211" t="s" s="2">
@@ -28305,7 +28309,7 @@
         <v>79</v>
       </c>
       <c r="AF211" t="s" s="2">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="AG211" t="s" s="2">
         <v>80</v>
@@ -28340,10 +28344,10 @@
     </row>
     <row r="212" hidden="true">
       <c r="A212" t="s" s="2">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="B212" t="s" s="2">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="C212" s="2"/>
       <c r="D212" t="s" s="2">
@@ -28366,19 +28370,19 @@
         <v>79</v>
       </c>
       <c r="K212" t="s" s="2">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="L212" t="s" s="2">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="M212" t="s" s="2">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="N212" t="s" s="2">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="O212" t="s" s="2">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="P212" t="s" s="2">
         <v>79</v>
@@ -28427,7 +28431,7 @@
         <v>79</v>
       </c>
       <c r="AF212" t="s" s="2">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="AG212" t="s" s="2">
         <v>80</v>
@@ -28451,7 +28455,7 @@
         <v>79</v>
       </c>
       <c r="AN212" t="s" s="2">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="AO212" t="s" s="2">
         <v>79</v>
@@ -28462,10 +28466,10 @@
     </row>
     <row r="213" hidden="true">
       <c r="A213" t="s" s="2">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="B213" t="s" s="2">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="C213" s="2"/>
       <c r="D213" t="s" s="2">
@@ -28580,10 +28584,10 @@
     </row>
     <row r="214" hidden="true">
       <c r="A214" t="s" s="2">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="B214" t="s" s="2">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="C214" s="2"/>
       <c r="D214" t="s" s="2">
@@ -28700,14 +28704,14 @@
     </row>
     <row r="215" hidden="true">
       <c r="A215" t="s" s="2">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="B215" t="s" s="2">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="C215" s="2"/>
       <c r="D215" t="s" s="2">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="E215" s="2"/>
       <c r="F215" t="s" s="2">
@@ -28729,10 +28733,10 @@
         <v>112</v>
       </c>
       <c r="L215" t="s" s="2">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="M215" t="s" s="2">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="N215" t="s" s="2">
         <v>115</v>
@@ -28787,7 +28791,7 @@
         <v>79</v>
       </c>
       <c r="AF215" t="s" s="2">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="AG215" t="s" s="2">
         <v>80</v>
@@ -28822,10 +28826,10 @@
     </row>
     <row r="216" hidden="true">
       <c r="A216" t="s" s="2">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="B216" t="s" s="2">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="C216" s="2"/>
       <c r="D216" t="s" s="2">
@@ -28851,14 +28855,14 @@
         <v>337</v>
       </c>
       <c r="L216" t="s" s="2">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="M216" t="s" s="2">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="N216" s="2"/>
       <c r="O216" t="s" s="2">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="P216" t="s" s="2">
         <v>79</v>
@@ -28886,10 +28890,10 @@
         <v>158</v>
       </c>
       <c r="Y216" t="s" s="2">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="Z216" t="s" s="2">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="AA216" t="s" s="2">
         <v>79</v>
@@ -28907,7 +28911,7 @@
         <v>79</v>
       </c>
       <c r="AF216" t="s" s="2">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="AG216" t="s" s="2">
         <v>80</v>
@@ -28931,7 +28935,7 @@
         <v>79</v>
       </c>
       <c r="AN216" t="s" s="2">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="AO216" t="s" s="2">
         <v>79</v>
@@ -28942,10 +28946,10 @@
     </row>
     <row r="217" hidden="true">
       <c r="A217" t="s" s="2">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="B217" t="s" s="2">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="C217" s="2"/>
       <c r="D217" t="s" s="2">
@@ -28968,17 +28972,17 @@
         <v>79</v>
       </c>
       <c r="K217" t="s" s="2">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="L217" t="s" s="2">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="M217" t="s" s="2">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="N217" s="2"/>
       <c r="O217" t="s" s="2">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="P217" t="s" s="2">
         <v>79</v>
@@ -29027,7 +29031,7 @@
         <v>79</v>
       </c>
       <c r="AF217" t="s" s="2">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="AG217" t="s" s="2">
         <v>80</v>
@@ -29048,10 +29052,10 @@
         <v>79</v>
       </c>
       <c r="AM217" t="s" s="2">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="AN217" t="s" s="2">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="AO217" t="s" s="2">
         <v>79</v>
@@ -29062,10 +29066,10 @@
     </row>
     <row r="218" hidden="true">
       <c r="A218" t="s" s="2">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="B218" t="s" s="2">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="C218" s="2"/>
       <c r="D218" t="s" s="2">
@@ -29091,14 +29095,14 @@
         <v>697</v>
       </c>
       <c r="L218" t="s" s="2">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="M218" t="s" s="2">
         <v>699</v>
       </c>
       <c r="N218" s="2"/>
       <c r="O218" t="s" s="2">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="P218" t="s" s="2">
         <v>79</v>
@@ -29147,7 +29151,7 @@
         <v>79</v>
       </c>
       <c r="AF218" t="s" s="2">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="AG218" t="s" s="2">
         <v>80</v>
@@ -29159,7 +29163,7 @@
         <v>208</v>
       </c>
       <c r="AJ218" t="s" s="2">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="AK218" t="s" s="2">
         <v>79</v>
@@ -29168,13 +29172,13 @@
         <v>79</v>
       </c>
       <c r="AM218" t="s" s="2">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="AN218" t="s" s="2">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="AO218" t="s" s="2">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="AP218" t="s" s="2">
         <v>79</v>
@@ -29182,10 +29186,10 @@
     </row>
     <row r="219" hidden="true">
       <c r="A219" t="s" s="2">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="B219" t="s" s="2">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="C219" s="2"/>
       <c r="D219" t="s" s="2">
@@ -29208,19 +29212,19 @@
         <v>79</v>
       </c>
       <c r="K219" t="s" s="2">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="L219" t="s" s="2">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="M219" t="s" s="2">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="N219" t="s" s="2">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="O219" t="s" s="2">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="P219" t="s" s="2">
         <v>79</v>
@@ -29269,7 +29273,7 @@
         <v>79</v>
       </c>
       <c r="AF219" t="s" s="2">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="AG219" t="s" s="2">
         <v>80</v>
@@ -29290,13 +29294,13 @@
         <v>79</v>
       </c>
       <c r="AM219" t="s" s="2">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="AN219" t="s" s="2">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="AO219" t="s" s="2">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="AP219" t="s" s="2">
         <v>79</v>
@@ -29304,10 +29308,10 @@
     </row>
     <row r="220" hidden="true">
       <c r="A220" t="s" s="2">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="B220" t="s" s="2">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="C220" s="2"/>
       <c r="D220" t="s" s="2">
@@ -29330,17 +29334,17 @@
         <v>79</v>
       </c>
       <c r="K220" t="s" s="2">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="L220" t="s" s="2">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="M220" t="s" s="2">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="N220" s="2"/>
       <c r="O220" t="s" s="2">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="P220" t="s" s="2">
         <v>79</v>
@@ -29389,7 +29393,7 @@
         <v>79</v>
       </c>
       <c r="AF220" t="s" s="2">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="AG220" t="s" s="2">
         <v>80</v>

--- a/nriss-patch-telecom-slicing/ig/StructureDefinition-as-organization.xlsx
+++ b/nriss-patch-telecom-slicing/ig/StructureDefinition-as-organization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-12T09:26:25+00:00</t>
+    <t>2024-10-29T10:53:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2198,7 +2198,7 @@
   </si>
   <si>
     <t>pattern:system}
-pattern:extension('https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-contact-point-email-type').value}</t>
+exists:extension('https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-contact-point-email-type')}</t>
   </si>
   <si>
     <t>cpt-2:A system is required if a value is provided. {value.empty() or system.exists()}
@@ -3000,7 +3000,7 @@
     <col min="25" max="25" width="98.61328125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="108.3828125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="96.68359375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="89.67578125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>

--- a/nriss-patch-telecom-slicing/ig/StructureDefinition-as-organization.xlsx
+++ b/nriss-patch-telecom-slicing/ig/StructureDefinition-as-organization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-29T10:53:15+00:00</t>
+    <t>2024-11-06T13:23:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nriss-patch-telecom-slicing/ig/StructureDefinition-as-organization.xlsx
+++ b/nriss-patch-telecom-slicing/ig/StructureDefinition-as-organization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-06T13:23:16+00:00</t>
+    <t>2024-11-07T08:33:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nriss-patch-telecom-slicing/ig/StructureDefinition-as-organization.xlsx
+++ b/nriss-patch-telecom-slicing/ig/StructureDefinition-as-organization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-07T08:33:26+00:00</t>
+    <t>2024-11-07T08:46:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nriss-patch-telecom-slicing/ig/StructureDefinition-as-organization.xlsx
+++ b/nriss-patch-telecom-slicing/ig/StructureDefinition-as-organization.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$220</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$233</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8402" uniqueCount="845">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8890" uniqueCount="872">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-07T08:46:41+00:00</t>
+    <t>2024-11-13T08:40:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2381,6 +2381,91 @@
   </si>
   <si>
     <t>EntiteGeographique.boiteLettreMSS</t>
+  </si>
+  <si>
+    <t>Organization.telecom:mailbox-mss.id</t>
+  </si>
+  <si>
+    <t>Organization.telecom:mailbox-mss.extension</t>
+  </si>
+  <si>
+    <t>Organization.telecom:mailbox-mss.extension:emailType</t>
+  </si>
+  <si>
+    <t>Organization.telecom:mailbox-mss.extension:emailType.id</t>
+  </si>
+  <si>
+    <t>Organization.telecom.extension.id</t>
+  </si>
+  <si>
+    <t>Organization.telecom:mailbox-mss.extension:emailType.extension</t>
+  </si>
+  <si>
+    <t>Organization.telecom.extension.extension</t>
+  </si>
+  <si>
+    <t>Organization.telecom:mailbox-mss.extension:emailType.url</t>
+  </si>
+  <si>
+    <t>Organization.telecom.extension.url</t>
+  </si>
+  <si>
+    <t>https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-contact-point-email-type</t>
+  </si>
+  <si>
+    <t>Organization.telecom:mailbox-mss.extension:emailType.value[x]</t>
+  </si>
+  <si>
+    <t>Organization.telecom.extension.value[x]</t>
+  </si>
+  <si>
+    <t>&lt;valueCoding xmlns="http://hl7.org/fhir"&gt;
+  &lt;system value="https://mos.esante.gouv.fr/NOS/TRE_R256-TypeMessagerie/FHIR/TRE-R256-TypeMessagerie"/&gt;
+  &lt;code value="MSSANTE"/&gt;
+&lt;/valueCoding&gt;</t>
+  </si>
+  <si>
+    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-email-type</t>
+  </si>
+  <si>
+    <t>Organization.telecom:mailbox-mss.extension:as-mailbox-mss-metadata</t>
+  </si>
+  <si>
+    <t>as-mailbox-mss-metadata</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/annuaire/StructureDefinition/as-ext-mailbox-mss-metadata}
+</t>
+  </si>
+  <si>
+    <t>Les attributs 'responsible' et 'phone' ne sont pas disponibles en accès libre.</t>
+  </si>
+  <si>
+    <t>Extension contenant les métadonnées de la mailbox mss.</t>
+  </si>
+  <si>
+    <t>Organization.telecom:mailbox-mss.system</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>Organization.telecom:mailbox-mss.value</t>
+  </si>
+  <si>
+    <t>Boîte Aux Lettres (BAL) MSS</t>
+  </si>
+  <si>
+    <t>Organization.telecom:mailbox-mss.use</t>
+  </si>
+  <si>
+    <t>Applications can assume that a contact is current unless it explicitly says that it is temporary or old.</t>
+  </si>
+  <si>
+    <t>Organization.telecom:mailbox-mss.rank</t>
+  </si>
+  <si>
+    <t>Organization.telecom:mailbox-mss.period</t>
   </si>
   <si>
     <t>Organization.address</t>
@@ -2964,7 +3049,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP220"/>
+  <dimension ref="A1:AP233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -27389,7 +27474,7 @@
         <v>762</v>
       </c>
       <c r="B204" t="s" s="2">
-        <v>762</v>
+        <v>709</v>
       </c>
       <c r="C204" s="2"/>
       <c r="D204" t="s" s="2">
@@ -27400,10 +27485,10 @@
         <v>80</v>
       </c>
       <c r="G204" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="H204" t="s" s="2">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="I204" t="s" s="2">
         <v>79</v>
@@ -27412,20 +27497,16 @@
         <v>79</v>
       </c>
       <c r="K204" t="s" s="2">
-        <v>763</v>
+        <v>105</v>
       </c>
       <c r="L204" t="s" s="2">
-        <v>764</v>
+        <v>106</v>
       </c>
       <c r="M204" t="s" s="2">
-        <v>765</v>
-      </c>
-      <c r="N204" t="s" s="2">
-        <v>766</v>
-      </c>
-      <c r="O204" t="s" s="2">
-        <v>767</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="N204" s="2"/>
+      <c r="O204" s="2"/>
       <c r="P204" t="s" s="2">
         <v>79</v>
       </c>
@@ -27473,34 +27554,34 @@
         <v>79</v>
       </c>
       <c r="AF204" t="s" s="2">
-        <v>762</v>
+        <v>108</v>
       </c>
       <c r="AG204" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH204" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="AI204" t="s" s="2">
-        <v>208</v>
+        <v>79</v>
       </c>
       <c r="AJ204" t="s" s="2">
-        <v>768</v>
+        <v>79</v>
       </c>
       <c r="AK204" t="s" s="2">
-        <v>769</v>
+        <v>79</v>
       </c>
       <c r="AL204" t="s" s="2">
-        <v>770</v>
+        <v>79</v>
       </c>
       <c r="AM204" t="s" s="2">
-        <v>771</v>
+        <v>79</v>
       </c>
       <c r="AN204" t="s" s="2">
-        <v>772</v>
+        <v>109</v>
       </c>
       <c r="AO204" t="s" s="2">
-        <v>773</v>
+        <v>79</v>
       </c>
       <c r="AP204" t="s" s="2">
         <v>79</v>
@@ -27508,10 +27589,10 @@
     </row>
     <row r="205" hidden="true">
       <c r="A205" t="s" s="2">
-        <v>774</v>
+        <v>763</v>
       </c>
       <c r="B205" t="s" s="2">
-        <v>774</v>
+        <v>710</v>
       </c>
       <c r="C205" s="2"/>
       <c r="D205" t="s" s="2">
@@ -27519,10 +27600,10 @@
       </c>
       <c r="E205" s="2"/>
       <c r="F205" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G205" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="H205" t="s" s="2">
         <v>79</v>
@@ -27531,21 +27612,19 @@
         <v>79</v>
       </c>
       <c r="J205" t="s" s="2">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="K205" t="s" s="2">
-        <v>775</v>
+        <v>112</v>
       </c>
       <c r="L205" t="s" s="2">
-        <v>776</v>
+        <v>201</v>
       </c>
       <c r="M205" t="s" s="2">
-        <v>777</v>
+        <v>202</v>
       </c>
       <c r="N205" s="2"/>
-      <c r="O205" t="s" s="2">
-        <v>778</v>
-      </c>
+      <c r="O205" s="2"/>
       <c r="P205" t="s" s="2">
         <v>79</v>
       </c>
@@ -27581,31 +27660,31 @@
         <v>79</v>
       </c>
       <c r="AB205" t="s" s="2">
-        <v>79</v>
+        <v>116</v>
       </c>
       <c r="AC205" t="s" s="2">
-        <v>79</v>
+        <v>117</v>
       </c>
       <c r="AD205" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE205" t="s" s="2">
-        <v>79</v>
+        <v>118</v>
       </c>
       <c r="AF205" t="s" s="2">
-        <v>774</v>
+        <v>119</v>
       </c>
       <c r="AG205" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH205" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="AI205" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ205" t="s" s="2">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="AK205" t="s" s="2">
         <v>79</v>
@@ -27614,13 +27693,13 @@
         <v>79</v>
       </c>
       <c r="AM205" t="s" s="2">
-        <v>531</v>
+        <v>79</v>
       </c>
       <c r="AN205" t="s" s="2">
-        <v>779</v>
+        <v>79</v>
       </c>
       <c r="AO205" t="s" s="2">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="AP205" t="s" s="2">
         <v>79</v>
@@ -27628,18 +27707,20 @@
     </row>
     <row r="206" hidden="true">
       <c r="A206" t="s" s="2">
-        <v>780</v>
+        <v>764</v>
       </c>
       <c r="B206" t="s" s="2">
-        <v>780</v>
-      </c>
-      <c r="C206" s="2"/>
+        <v>710</v>
+      </c>
+      <c r="C206" t="s" s="2">
+        <v>712</v>
+      </c>
       <c r="D206" t="s" s="2">
         <v>79</v>
       </c>
       <c r="E206" s="2"/>
       <c r="F206" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G206" t="s" s="2">
         <v>91</v>
@@ -27654,13 +27735,13 @@
         <v>79</v>
       </c>
       <c r="K206" t="s" s="2">
-        <v>105</v>
+        <v>713</v>
       </c>
       <c r="L206" t="s" s="2">
-        <v>106</v>
+        <v>714</v>
       </c>
       <c r="M206" t="s" s="2">
-        <v>107</v>
+        <v>715</v>
       </c>
       <c r="N206" s="2"/>
       <c r="O206" s="2"/>
@@ -27711,19 +27792,19 @@
         <v>79</v>
       </c>
       <c r="AF206" t="s" s="2">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="AG206" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH206" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="AI206" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ206" t="s" s="2">
-        <v>79</v>
+        <v>120</v>
       </c>
       <c r="AK206" t="s" s="2">
         <v>79</v>
@@ -27735,7 +27816,7 @@
         <v>79</v>
       </c>
       <c r="AN206" t="s" s="2">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="AO206" t="s" s="2">
         <v>79</v>
@@ -27746,21 +27827,21 @@
     </row>
     <row r="207" hidden="true">
       <c r="A207" t="s" s="2">
-        <v>781</v>
+        <v>765</v>
       </c>
       <c r="B207" t="s" s="2">
-        <v>781</v>
+        <v>766</v>
       </c>
       <c r="C207" s="2"/>
       <c r="D207" t="s" s="2">
-        <v>111</v>
+        <v>79</v>
       </c>
       <c r="E207" s="2"/>
       <c r="F207" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G207" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="H207" t="s" s="2">
         <v>79</v>
@@ -27772,17 +27853,15 @@
         <v>79</v>
       </c>
       <c r="K207" t="s" s="2">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="L207" t="s" s="2">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="M207" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="N207" t="s" s="2">
-        <v>115</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="N207" s="2"/>
       <c r="O207" s="2"/>
       <c r="P207" t="s" s="2">
         <v>79</v>
@@ -27819,31 +27898,31 @@
         <v>79</v>
       </c>
       <c r="AB207" t="s" s="2">
-        <v>116</v>
+        <v>79</v>
       </c>
       <c r="AC207" t="s" s="2">
-        <v>117</v>
+        <v>79</v>
       </c>
       <c r="AD207" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE207" t="s" s="2">
-        <v>118</v>
+        <v>79</v>
       </c>
       <c r="AF207" t="s" s="2">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="AG207" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH207" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="AI207" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ207" t="s" s="2">
-        <v>120</v>
+        <v>79</v>
       </c>
       <c r="AK207" t="s" s="2">
         <v>79</v>
@@ -27866,10 +27945,10 @@
     </row>
     <row r="208" hidden="true">
       <c r="A208" t="s" s="2">
-        <v>782</v>
+        <v>767</v>
       </c>
       <c r="B208" t="s" s="2">
-        <v>782</v>
+        <v>768</v>
       </c>
       <c r="C208" s="2"/>
       <c r="D208" t="s" s="2">
@@ -27880,7 +27959,7 @@
         <v>80</v>
       </c>
       <c r="G208" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="H208" t="s" s="2">
         <v>79</v>
@@ -27889,20 +27968,18 @@
         <v>79</v>
       </c>
       <c r="J208" t="s" s="2">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="K208" t="s" s="2">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="L208" t="s" s="2">
-        <v>783</v>
+        <v>201</v>
       </c>
       <c r="M208" t="s" s="2">
-        <v>784</v>
-      </c>
-      <c r="N208" t="s" s="2">
-        <v>785</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="N208" s="2"/>
       <c r="O208" s="2"/>
       <c r="P208" t="s" s="2">
         <v>79</v>
@@ -27939,31 +28016,31 @@
         <v>79</v>
       </c>
       <c r="AB208" t="s" s="2">
-        <v>79</v>
+        <v>116</v>
       </c>
       <c r="AC208" t="s" s="2">
-        <v>79</v>
+        <v>117</v>
       </c>
       <c r="AD208" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE208" t="s" s="2">
-        <v>79</v>
+        <v>118</v>
       </c>
       <c r="AF208" t="s" s="2">
-        <v>786</v>
+        <v>119</v>
       </c>
       <c r="AG208" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH208" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="AI208" t="s" s="2">
-        <v>787</v>
+        <v>79</v>
       </c>
       <c r="AJ208" t="s" s="2">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="AK208" t="s" s="2">
         <v>79</v>
@@ -27975,7 +28052,7 @@
         <v>79</v>
       </c>
       <c r="AN208" t="s" s="2">
-        <v>199</v>
+        <v>79</v>
       </c>
       <c r="AO208" t="s" s="2">
         <v>79</v>
@@ -27986,10 +28063,10 @@
     </row>
     <row r="209" hidden="true">
       <c r="A209" t="s" s="2">
-        <v>788</v>
+        <v>769</v>
       </c>
       <c r="B209" t="s" s="2">
-        <v>788</v>
+        <v>770</v>
       </c>
       <c r="C209" s="2"/>
       <c r="D209" t="s" s="2">
@@ -27997,7 +28074,7 @@
       </c>
       <c r="E209" s="2"/>
       <c r="F209" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G209" t="s" s="2">
         <v>91</v>
@@ -28009,19 +28086,19 @@
         <v>79</v>
       </c>
       <c r="J209" t="s" s="2">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="K209" t="s" s="2">
         <v>138</v>
       </c>
       <c r="L209" t="s" s="2">
-        <v>789</v>
+        <v>223</v>
       </c>
       <c r="M209" t="s" s="2">
-        <v>790</v>
+        <v>224</v>
       </c>
       <c r="N209" t="s" s="2">
-        <v>791</v>
+        <v>225</v>
       </c>
       <c r="O209" s="2"/>
       <c r="P209" t="s" s="2">
@@ -28029,7 +28106,7 @@
       </c>
       <c r="Q209" s="2"/>
       <c r="R209" t="s" s="2">
-        <v>79</v>
+        <v>771</v>
       </c>
       <c r="S209" t="s" s="2">
         <v>79</v>
@@ -28047,11 +28124,13 @@
         <v>79</v>
       </c>
       <c r="X209" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="Y209" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="Y209" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="Z209" t="s" s="2">
-        <v>549</v>
+        <v>79</v>
       </c>
       <c r="AA209" t="s" s="2">
         <v>79</v>
@@ -28069,10 +28148,10 @@
         <v>79</v>
       </c>
       <c r="AF209" t="s" s="2">
-        <v>792</v>
+        <v>227</v>
       </c>
       <c r="AG209" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AH209" t="s" s="2">
         <v>91</v>
@@ -28081,7 +28160,7 @@
         <v>79</v>
       </c>
       <c r="AJ209" t="s" s="2">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="AK209" t="s" s="2">
         <v>79</v>
@@ -28104,10 +28183,10 @@
     </row>
     <row r="210" hidden="true">
       <c r="A210" t="s" s="2">
-        <v>793</v>
+        <v>772</v>
       </c>
       <c r="B210" t="s" s="2">
-        <v>793</v>
+        <v>773</v>
       </c>
       <c r="C210" s="2"/>
       <c r="D210" t="s" s="2">
@@ -28127,20 +28206,18 @@
         <v>79</v>
       </c>
       <c r="J210" t="s" s="2">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="K210" t="s" s="2">
-        <v>303</v>
+        <v>154</v>
       </c>
       <c r="L210" t="s" s="2">
-        <v>794</v>
+        <v>231</v>
       </c>
       <c r="M210" t="s" s="2">
-        <v>795</v>
-      </c>
-      <c r="N210" t="s" s="2">
-        <v>796</v>
-      </c>
+        <v>568</v>
+      </c>
+      <c r="N210" s="2"/>
       <c r="O210" s="2"/>
       <c r="P210" t="s" s="2">
         <v>79</v>
@@ -28150,7 +28227,7 @@
         <v>79</v>
       </c>
       <c r="S210" t="s" s="2">
-        <v>79</v>
+        <v>774</v>
       </c>
       <c r="T210" t="s" s="2">
         <v>79</v>
@@ -28165,13 +28242,11 @@
         <v>79</v>
       </c>
       <c r="X210" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y210" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="Y210" s="2"/>
       <c r="Z210" t="s" s="2">
-        <v>79</v>
+        <v>775</v>
       </c>
       <c r="AA210" t="s" s="2">
         <v>79</v>
@@ -28189,7 +28264,7 @@
         <v>79</v>
       </c>
       <c r="AF210" t="s" s="2">
-        <v>797</v>
+        <v>233</v>
       </c>
       <c r="AG210" t="s" s="2">
         <v>80</v>
@@ -28213,7 +28288,7 @@
         <v>79</v>
       </c>
       <c r="AN210" t="s" s="2">
-        <v>798</v>
+        <v>199</v>
       </c>
       <c r="AO210" t="s" s="2">
         <v>79</v>
@@ -28224,12 +28299,14 @@
     </row>
     <row r="211" hidden="true">
       <c r="A211" t="s" s="2">
-        <v>799</v>
+        <v>776</v>
       </c>
       <c r="B211" t="s" s="2">
-        <v>799</v>
-      </c>
-      <c r="C211" s="2"/>
+        <v>710</v>
+      </c>
+      <c r="C211" t="s" s="2">
+        <v>777</v>
+      </c>
       <c r="D211" t="s" s="2">
         <v>79</v>
       </c>
@@ -28247,20 +28324,18 @@
         <v>79</v>
       </c>
       <c r="J211" t="s" s="2">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="K211" t="s" s="2">
-        <v>105</v>
+        <v>778</v>
       </c>
       <c r="L211" t="s" s="2">
-        <v>800</v>
+        <v>779</v>
       </c>
       <c r="M211" t="s" s="2">
-        <v>801</v>
-      </c>
-      <c r="N211" t="s" s="2">
-        <v>802</v>
-      </c>
+        <v>780</v>
+      </c>
+      <c r="N211" s="2"/>
       <c r="O211" s="2"/>
       <c r="P211" t="s" s="2">
         <v>79</v>
@@ -28309,19 +28384,19 @@
         <v>79</v>
       </c>
       <c r="AF211" t="s" s="2">
-        <v>803</v>
+        <v>119</v>
       </c>
       <c r="AG211" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH211" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="AI211" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ211" t="s" s="2">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="AK211" t="s" s="2">
         <v>79</v>
@@ -28333,7 +28408,7 @@
         <v>79</v>
       </c>
       <c r="AN211" t="s" s="2">
-        <v>199</v>
+        <v>79</v>
       </c>
       <c r="AO211" t="s" s="2">
         <v>79</v>
@@ -28344,10 +28419,10 @@
     </row>
     <row r="212" hidden="true">
       <c r="A212" t="s" s="2">
-        <v>804</v>
+        <v>781</v>
       </c>
       <c r="B212" t="s" s="2">
-        <v>804</v>
+        <v>716</v>
       </c>
       <c r="C212" s="2"/>
       <c r="D212" t="s" s="2">
@@ -28355,10 +28430,10 @@
       </c>
       <c r="E212" s="2"/>
       <c r="F212" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G212" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="H212" t="s" s="2">
         <v>79</v>
@@ -28367,23 +28442,19 @@
         <v>79</v>
       </c>
       <c r="J212" t="s" s="2">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="K212" t="s" s="2">
-        <v>805</v>
+        <v>176</v>
       </c>
       <c r="L212" t="s" s="2">
-        <v>806</v>
+        <v>717</v>
       </c>
       <c r="M212" t="s" s="2">
-        <v>807</v>
-      </c>
-      <c r="N212" t="s" s="2">
-        <v>808</v>
-      </c>
-      <c r="O212" t="s" s="2">
-        <v>809</v>
-      </c>
+        <v>718</v>
+      </c>
+      <c r="N212" s="2"/>
+      <c r="O212" s="2"/>
       <c r="P212" t="s" s="2">
         <v>79</v>
       </c>
@@ -28392,7 +28463,7 @@
         <v>79</v>
       </c>
       <c r="S212" t="s" s="2">
-        <v>79</v>
+        <v>782</v>
       </c>
       <c r="T212" t="s" s="2">
         <v>79</v>
@@ -28407,13 +28478,13 @@
         <v>79</v>
       </c>
       <c r="X212" t="s" s="2">
-        <v>79</v>
+        <v>330</v>
       </c>
       <c r="Y212" t="s" s="2">
-        <v>79</v>
+        <v>719</v>
       </c>
       <c r="Z212" t="s" s="2">
-        <v>79</v>
+        <v>720</v>
       </c>
       <c r="AA212" t="s" s="2">
         <v>79</v>
@@ -28431,16 +28502,16 @@
         <v>79</v>
       </c>
       <c r="AF212" t="s" s="2">
-        <v>804</v>
+        <v>721</v>
       </c>
       <c r="AG212" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH212" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="AI212" t="s" s="2">
-        <v>79</v>
+        <v>722</v>
       </c>
       <c r="AJ212" t="s" s="2">
         <v>103</v>
@@ -28452,13 +28523,13 @@
         <v>79</v>
       </c>
       <c r="AM212" t="s" s="2">
-        <v>79</v>
+        <v>723</v>
       </c>
       <c r="AN212" t="s" s="2">
-        <v>810</v>
+        <v>724</v>
       </c>
       <c r="AO212" t="s" s="2">
-        <v>79</v>
+        <v>725</v>
       </c>
       <c r="AP212" t="s" s="2">
         <v>79</v>
@@ -28466,10 +28537,10 @@
     </row>
     <row r="213" hidden="true">
       <c r="A213" t="s" s="2">
-        <v>811</v>
+        <v>783</v>
       </c>
       <c r="B213" t="s" s="2">
-        <v>811</v>
+        <v>726</v>
       </c>
       <c r="C213" s="2"/>
       <c r="D213" t="s" s="2">
@@ -28477,31 +28548,35 @@
       </c>
       <c r="E213" s="2"/>
       <c r="F213" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G213" t="s" s="2">
         <v>91</v>
       </c>
       <c r="H213" t="s" s="2">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="I213" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J213" t="s" s="2">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="K213" t="s" s="2">
         <v>105</v>
       </c>
       <c r="L213" t="s" s="2">
-        <v>106</v>
+        <v>784</v>
       </c>
       <c r="M213" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="N213" s="2"/>
-      <c r="O213" s="2"/>
+        <v>728</v>
+      </c>
+      <c r="N213" t="s" s="2">
+        <v>729</v>
+      </c>
+      <c r="O213" t="s" s="2">
+        <v>730</v>
+      </c>
       <c r="P213" t="s" s="2">
         <v>79</v>
       </c>
@@ -28549,7 +28624,7 @@
         <v>79</v>
       </c>
       <c r="AF213" t="s" s="2">
-        <v>108</v>
+        <v>731</v>
       </c>
       <c r="AG213" t="s" s="2">
         <v>80</v>
@@ -28561,7 +28636,7 @@
         <v>79</v>
       </c>
       <c r="AJ213" t="s" s="2">
-        <v>79</v>
+        <v>103</v>
       </c>
       <c r="AK213" t="s" s="2">
         <v>79</v>
@@ -28570,13 +28645,13 @@
         <v>79</v>
       </c>
       <c r="AM213" t="s" s="2">
-        <v>79</v>
+        <v>732</v>
       </c>
       <c r="AN213" t="s" s="2">
-        <v>109</v>
+        <v>733</v>
       </c>
       <c r="AO213" t="s" s="2">
-        <v>79</v>
+        <v>368</v>
       </c>
       <c r="AP213" t="s" s="2">
         <v>79</v>
@@ -28584,44 +28659,46 @@
     </row>
     <row r="214" hidden="true">
       <c r="A214" t="s" s="2">
-        <v>812</v>
+        <v>785</v>
       </c>
       <c r="B214" t="s" s="2">
-        <v>812</v>
+        <v>734</v>
       </c>
       <c r="C214" s="2"/>
       <c r="D214" t="s" s="2">
-        <v>111</v>
+        <v>79</v>
       </c>
       <c r="E214" s="2"/>
       <c r="F214" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G214" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="H214" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I214" t="s" s="2">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="J214" t="s" s="2">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="K214" t="s" s="2">
-        <v>112</v>
+        <v>176</v>
       </c>
       <c r="L214" t="s" s="2">
-        <v>113</v>
+        <v>735</v>
       </c>
       <c r="M214" t="s" s="2">
-        <v>114</v>
+        <v>736</v>
       </c>
       <c r="N214" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="O214" s="2"/>
+        <v>786</v>
+      </c>
+      <c r="O214" t="s" s="2">
+        <v>738</v>
+      </c>
       <c r="P214" t="s" s="2">
         <v>79</v>
       </c>
@@ -28645,13 +28722,13 @@
         <v>79</v>
       </c>
       <c r="X214" t="s" s="2">
-        <v>79</v>
+        <v>330</v>
       </c>
       <c r="Y214" t="s" s="2">
-        <v>79</v>
+        <v>739</v>
       </c>
       <c r="Z214" t="s" s="2">
-        <v>79</v>
+        <v>740</v>
       </c>
       <c r="AA214" t="s" s="2">
         <v>79</v>
@@ -28669,19 +28746,19 @@
         <v>79</v>
       </c>
       <c r="AF214" t="s" s="2">
-        <v>119</v>
+        <v>741</v>
       </c>
       <c r="AG214" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH214" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="AI214" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ214" t="s" s="2">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="AK214" t="s" s="2">
         <v>79</v>
@@ -28690,13 +28767,13 @@
         <v>79</v>
       </c>
       <c r="AM214" t="s" s="2">
-        <v>79</v>
+        <v>742</v>
       </c>
       <c r="AN214" t="s" s="2">
-        <v>109</v>
+        <v>743</v>
       </c>
       <c r="AO214" t="s" s="2">
-        <v>79</v>
+        <v>744</v>
       </c>
       <c r="AP214" t="s" s="2">
         <v>79</v>
@@ -28704,46 +28781,44 @@
     </row>
     <row r="215" hidden="true">
       <c r="A215" t="s" s="2">
-        <v>813</v>
+        <v>787</v>
       </c>
       <c r="B215" t="s" s="2">
-        <v>813</v>
+        <v>745</v>
       </c>
       <c r="C215" s="2"/>
       <c r="D215" t="s" s="2">
-        <v>814</v>
+        <v>79</v>
       </c>
       <c r="E215" s="2"/>
       <c r="F215" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G215" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="H215" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I215" t="s" s="2">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="J215" t="s" s="2">
         <v>92</v>
       </c>
       <c r="K215" t="s" s="2">
-        <v>112</v>
+        <v>746</v>
       </c>
       <c r="L215" t="s" s="2">
-        <v>815</v>
+        <v>747</v>
       </c>
       <c r="M215" t="s" s="2">
-        <v>816</v>
+        <v>748</v>
       </c>
       <c r="N215" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="O215" t="s" s="2">
-        <v>300</v>
-      </c>
+        <v>749</v>
+      </c>
+      <c r="O215" s="2"/>
       <c r="P215" t="s" s="2">
         <v>79</v>
       </c>
@@ -28791,19 +28866,19 @@
         <v>79</v>
       </c>
       <c r="AF215" t="s" s="2">
-        <v>817</v>
+        <v>750</v>
       </c>
       <c r="AG215" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH215" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="AI215" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ215" t="s" s="2">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="AK215" t="s" s="2">
         <v>79</v>
@@ -28812,10 +28887,10 @@
         <v>79</v>
       </c>
       <c r="AM215" t="s" s="2">
-        <v>79</v>
+        <v>109</v>
       </c>
       <c r="AN215" t="s" s="2">
-        <v>199</v>
+        <v>109</v>
       </c>
       <c r="AO215" t="s" s="2">
         <v>79</v>
@@ -28826,10 +28901,10 @@
     </row>
     <row r="216" hidden="true">
       <c r="A216" t="s" s="2">
-        <v>818</v>
+        <v>788</v>
       </c>
       <c r="B216" t="s" s="2">
-        <v>818</v>
+        <v>751</v>
       </c>
       <c r="C216" s="2"/>
       <c r="D216" t="s" s="2">
@@ -28849,21 +28924,19 @@
         <v>79</v>
       </c>
       <c r="J216" t="s" s="2">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="K216" t="s" s="2">
-        <v>337</v>
+        <v>230</v>
       </c>
       <c r="L216" t="s" s="2">
-        <v>819</v>
+        <v>752</v>
       </c>
       <c r="M216" t="s" s="2">
-        <v>820</v>
+        <v>753</v>
       </c>
       <c r="N216" s="2"/>
-      <c r="O216" t="s" s="2">
-        <v>821</v>
-      </c>
+      <c r="O216" s="2"/>
       <c r="P216" t="s" s="2">
         <v>79</v>
       </c>
@@ -28887,13 +28960,13 @@
         <v>79</v>
       </c>
       <c r="X216" t="s" s="2">
-        <v>158</v>
+        <v>79</v>
       </c>
       <c r="Y216" t="s" s="2">
-        <v>822</v>
+        <v>79</v>
       </c>
       <c r="Z216" t="s" s="2">
-        <v>823</v>
+        <v>79</v>
       </c>
       <c r="AA216" t="s" s="2">
         <v>79</v>
@@ -28911,7 +28984,7 @@
         <v>79</v>
       </c>
       <c r="AF216" t="s" s="2">
-        <v>818</v>
+        <v>754</v>
       </c>
       <c r="AG216" t="s" s="2">
         <v>80</v>
@@ -28932,13 +29005,13 @@
         <v>79</v>
       </c>
       <c r="AM216" t="s" s="2">
-        <v>79</v>
+        <v>199</v>
       </c>
       <c r="AN216" t="s" s="2">
-        <v>824</v>
+        <v>755</v>
       </c>
       <c r="AO216" t="s" s="2">
-        <v>79</v>
+        <v>376</v>
       </c>
       <c r="AP216" t="s" s="2">
         <v>79</v>
@@ -28946,10 +29019,10 @@
     </row>
     <row r="217" hidden="true">
       <c r="A217" t="s" s="2">
-        <v>825</v>
+        <v>789</v>
       </c>
       <c r="B217" t="s" s="2">
-        <v>825</v>
+        <v>789</v>
       </c>
       <c r="C217" s="2"/>
       <c r="D217" t="s" s="2">
@@ -28960,10 +29033,10 @@
         <v>80</v>
       </c>
       <c r="G217" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="H217" t="s" s="2">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="I217" t="s" s="2">
         <v>79</v>
@@ -28972,17 +29045,19 @@
         <v>79</v>
       </c>
       <c r="K217" t="s" s="2">
-        <v>826</v>
+        <v>790</v>
       </c>
       <c r="L217" t="s" s="2">
-        <v>827</v>
+        <v>791</v>
       </c>
       <c r="M217" t="s" s="2">
-        <v>828</v>
-      </c>
-      <c r="N217" s="2"/>
+        <v>792</v>
+      </c>
+      <c r="N217" t="s" s="2">
+        <v>793</v>
+      </c>
       <c r="O217" t="s" s="2">
-        <v>829</v>
+        <v>794</v>
       </c>
       <c r="P217" t="s" s="2">
         <v>79</v>
@@ -29031,34 +29106,34 @@
         <v>79</v>
       </c>
       <c r="AF217" t="s" s="2">
-        <v>825</v>
+        <v>789</v>
       </c>
       <c r="AG217" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH217" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="AI217" t="s" s="2">
-        <v>79</v>
+        <v>208</v>
       </c>
       <c r="AJ217" t="s" s="2">
-        <v>103</v>
+        <v>795</v>
       </c>
       <c r="AK217" t="s" s="2">
-        <v>79</v>
+        <v>796</v>
       </c>
       <c r="AL217" t="s" s="2">
-        <v>79</v>
+        <v>797</v>
       </c>
       <c r="AM217" t="s" s="2">
-        <v>830</v>
+        <v>798</v>
       </c>
       <c r="AN217" t="s" s="2">
-        <v>831</v>
+        <v>799</v>
       </c>
       <c r="AO217" t="s" s="2">
-        <v>79</v>
+        <v>800</v>
       </c>
       <c r="AP217" t="s" s="2">
         <v>79</v>
@@ -29066,10 +29141,10 @@
     </row>
     <row r="218" hidden="true">
       <c r="A218" t="s" s="2">
-        <v>832</v>
+        <v>801</v>
       </c>
       <c r="B218" t="s" s="2">
-        <v>832</v>
+        <v>801</v>
       </c>
       <c r="C218" s="2"/>
       <c r="D218" t="s" s="2">
@@ -29080,7 +29155,7 @@
         <v>80</v>
       </c>
       <c r="G218" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="H218" t="s" s="2">
         <v>79</v>
@@ -29089,20 +29164,20 @@
         <v>79</v>
       </c>
       <c r="J218" t="s" s="2">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="K218" t="s" s="2">
-        <v>697</v>
+        <v>802</v>
       </c>
       <c r="L218" t="s" s="2">
-        <v>833</v>
+        <v>803</v>
       </c>
       <c r="M218" t="s" s="2">
-        <v>699</v>
+        <v>804</v>
       </c>
       <c r="N218" s="2"/>
       <c r="O218" t="s" s="2">
-        <v>834</v>
+        <v>805</v>
       </c>
       <c r="P218" t="s" s="2">
         <v>79</v>
@@ -29151,19 +29226,19 @@
         <v>79</v>
       </c>
       <c r="AF218" t="s" s="2">
-        <v>832</v>
+        <v>801</v>
       </c>
       <c r="AG218" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH218" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="AI218" t="s" s="2">
-        <v>208</v>
+        <v>79</v>
       </c>
       <c r="AJ218" t="s" s="2">
-        <v>835</v>
+        <v>103</v>
       </c>
       <c r="AK218" t="s" s="2">
         <v>79</v>
@@ -29172,13 +29247,13 @@
         <v>79</v>
       </c>
       <c r="AM218" t="s" s="2">
-        <v>706</v>
+        <v>531</v>
       </c>
       <c r="AN218" t="s" s="2">
-        <v>707</v>
+        <v>806</v>
       </c>
       <c r="AO218" t="s" s="2">
-        <v>708</v>
+        <v>109</v>
       </c>
       <c r="AP218" t="s" s="2">
         <v>79</v>
@@ -29186,10 +29261,10 @@
     </row>
     <row r="219" hidden="true">
       <c r="A219" t="s" s="2">
-        <v>836</v>
+        <v>807</v>
       </c>
       <c r="B219" t="s" s="2">
-        <v>836</v>
+        <v>807</v>
       </c>
       <c r="C219" s="2"/>
       <c r="D219" t="s" s="2">
@@ -29212,20 +29287,16 @@
         <v>79</v>
       </c>
       <c r="K219" t="s" s="2">
-        <v>837</v>
+        <v>105</v>
       </c>
       <c r="L219" t="s" s="2">
-        <v>838</v>
+        <v>106</v>
       </c>
       <c r="M219" t="s" s="2">
-        <v>765</v>
-      </c>
-      <c r="N219" t="s" s="2">
-        <v>766</v>
-      </c>
-      <c r="O219" t="s" s="2">
-        <v>839</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="N219" s="2"/>
+      <c r="O219" s="2"/>
       <c r="P219" t="s" s="2">
         <v>79</v>
       </c>
@@ -29273,7 +29344,7 @@
         <v>79</v>
       </c>
       <c r="AF219" t="s" s="2">
-        <v>836</v>
+        <v>108</v>
       </c>
       <c r="AG219" t="s" s="2">
         <v>80</v>
@@ -29282,10 +29353,10 @@
         <v>91</v>
       </c>
       <c r="AI219" t="s" s="2">
-        <v>208</v>
+        <v>79</v>
       </c>
       <c r="AJ219" t="s" s="2">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="AK219" t="s" s="2">
         <v>79</v>
@@ -29294,13 +29365,13 @@
         <v>79</v>
       </c>
       <c r="AM219" t="s" s="2">
-        <v>771</v>
+        <v>79</v>
       </c>
       <c r="AN219" t="s" s="2">
-        <v>772</v>
+        <v>109</v>
       </c>
       <c r="AO219" t="s" s="2">
-        <v>773</v>
+        <v>79</v>
       </c>
       <c r="AP219" t="s" s="2">
         <v>79</v>
@@ -29308,14 +29379,14 @@
     </row>
     <row r="220" hidden="true">
       <c r="A220" t="s" s="2">
-        <v>840</v>
+        <v>808</v>
       </c>
       <c r="B220" t="s" s="2">
-        <v>840</v>
+        <v>808</v>
       </c>
       <c r="C220" s="2"/>
       <c r="D220" t="s" s="2">
-        <v>79</v>
+        <v>111</v>
       </c>
       <c r="E220" s="2"/>
       <c r="F220" t="s" s="2">
@@ -29325,7 +29396,7 @@
         <v>81</v>
       </c>
       <c r="H220" t="s" s="2">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="I220" t="s" s="2">
         <v>79</v>
@@ -29334,18 +29405,18 @@
         <v>79</v>
       </c>
       <c r="K220" t="s" s="2">
-        <v>841</v>
+        <v>112</v>
       </c>
       <c r="L220" t="s" s="2">
-        <v>842</v>
+        <v>113</v>
       </c>
       <c r="M220" t="s" s="2">
-        <v>843</v>
-      </c>
-      <c r="N220" s="2"/>
-      <c r="O220" t="s" s="2">
-        <v>844</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="N220" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="O220" s="2"/>
       <c r="P220" t="s" s="2">
         <v>79</v>
       </c>
@@ -29381,19 +29452,19 @@
         <v>79</v>
       </c>
       <c r="AB220" t="s" s="2">
-        <v>79</v>
+        <v>116</v>
       </c>
       <c r="AC220" t="s" s="2">
-        <v>79</v>
+        <v>117</v>
       </c>
       <c r="AD220" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE220" t="s" s="2">
-        <v>79</v>
+        <v>118</v>
       </c>
       <c r="AF220" t="s" s="2">
-        <v>840</v>
+        <v>119</v>
       </c>
       <c r="AG220" t="s" s="2">
         <v>80</v>
@@ -29405,7 +29476,7 @@
         <v>79</v>
       </c>
       <c r="AJ220" t="s" s="2">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="AK220" t="s" s="2">
         <v>79</v>
@@ -29426,8 +29497,1570 @@
         <v>79</v>
       </c>
     </row>
+    <row r="221" hidden="true">
+      <c r="A221" t="s" s="2">
+        <v>809</v>
+      </c>
+      <c r="B221" t="s" s="2">
+        <v>809</v>
+      </c>
+      <c r="C221" s="2"/>
+      <c r="D221" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E221" s="2"/>
+      <c r="F221" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G221" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H221" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I221" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J221" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="K221" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="L221" t="s" s="2">
+        <v>810</v>
+      </c>
+      <c r="M221" t="s" s="2">
+        <v>811</v>
+      </c>
+      <c r="N221" t="s" s="2">
+        <v>812</v>
+      </c>
+      <c r="O221" s="2"/>
+      <c r="P221" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q221" s="2"/>
+      <c r="R221" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S221" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T221" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U221" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V221" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W221" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X221" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y221" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z221" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA221" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB221" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC221" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD221" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE221" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF221" t="s" s="2">
+        <v>813</v>
+      </c>
+      <c r="AG221" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH221" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI221" t="s" s="2">
+        <v>814</v>
+      </c>
+      <c r="AJ221" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK221" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL221" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM221" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN221" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="AO221" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AP221" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="222" hidden="true">
+      <c r="A222" t="s" s="2">
+        <v>815</v>
+      </c>
+      <c r="B222" t="s" s="2">
+        <v>815</v>
+      </c>
+      <c r="C222" s="2"/>
+      <c r="D222" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E222" s="2"/>
+      <c r="F222" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G222" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H222" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I222" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J222" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="K222" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="L222" t="s" s="2">
+        <v>816</v>
+      </c>
+      <c r="M222" t="s" s="2">
+        <v>817</v>
+      </c>
+      <c r="N222" t="s" s="2">
+        <v>818</v>
+      </c>
+      <c r="O222" s="2"/>
+      <c r="P222" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q222" s="2"/>
+      <c r="R222" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S222" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T222" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U222" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V222" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W222" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X222" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="Y222" s="2"/>
+      <c r="Z222" t="s" s="2">
+        <v>549</v>
+      </c>
+      <c r="AA222" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB222" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC222" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD222" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE222" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF222" t="s" s="2">
+        <v>819</v>
+      </c>
+      <c r="AG222" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH222" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI222" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ222" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK222" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL222" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM222" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN222" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="AO222" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AP222" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="223" hidden="true">
+      <c r="A223" t="s" s="2">
+        <v>820</v>
+      </c>
+      <c r="B223" t="s" s="2">
+        <v>820</v>
+      </c>
+      <c r="C223" s="2"/>
+      <c r="D223" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E223" s="2"/>
+      <c r="F223" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G223" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H223" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I223" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J223" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="K223" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="L223" t="s" s="2">
+        <v>821</v>
+      </c>
+      <c r="M223" t="s" s="2">
+        <v>822</v>
+      </c>
+      <c r="N223" t="s" s="2">
+        <v>823</v>
+      </c>
+      <c r="O223" s="2"/>
+      <c r="P223" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q223" s="2"/>
+      <c r="R223" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S223" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T223" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U223" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V223" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W223" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X223" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y223" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z223" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA223" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB223" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC223" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD223" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE223" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF223" t="s" s="2">
+        <v>824</v>
+      </c>
+      <c r="AG223" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH223" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI223" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ223" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK223" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL223" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM223" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN223" t="s" s="2">
+        <v>825</v>
+      </c>
+      <c r="AO223" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AP223" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="224" hidden="true">
+      <c r="A224" t="s" s="2">
+        <v>826</v>
+      </c>
+      <c r="B224" t="s" s="2">
+        <v>826</v>
+      </c>
+      <c r="C224" s="2"/>
+      <c r="D224" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E224" s="2"/>
+      <c r="F224" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G224" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H224" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I224" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J224" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="K224" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="L224" t="s" s="2">
+        <v>827</v>
+      </c>
+      <c r="M224" t="s" s="2">
+        <v>828</v>
+      </c>
+      <c r="N224" t="s" s="2">
+        <v>829</v>
+      </c>
+      <c r="O224" s="2"/>
+      <c r="P224" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q224" s="2"/>
+      <c r="R224" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S224" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T224" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U224" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V224" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W224" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X224" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y224" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z224" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA224" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB224" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC224" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD224" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE224" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF224" t="s" s="2">
+        <v>830</v>
+      </c>
+      <c r="AG224" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH224" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI224" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ224" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK224" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL224" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM224" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN224" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="AO224" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AP224" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="225" hidden="true">
+      <c r="A225" t="s" s="2">
+        <v>831</v>
+      </c>
+      <c r="B225" t="s" s="2">
+        <v>831</v>
+      </c>
+      <c r="C225" s="2"/>
+      <c r="D225" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E225" s="2"/>
+      <c r="F225" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G225" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H225" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I225" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J225" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K225" t="s" s="2">
+        <v>832</v>
+      </c>
+      <c r="L225" t="s" s="2">
+        <v>833</v>
+      </c>
+      <c r="M225" t="s" s="2">
+        <v>834</v>
+      </c>
+      <c r="N225" t="s" s="2">
+        <v>835</v>
+      </c>
+      <c r="O225" t="s" s="2">
+        <v>836</v>
+      </c>
+      <c r="P225" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q225" s="2"/>
+      <c r="R225" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S225" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T225" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U225" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V225" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W225" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X225" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y225" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z225" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA225" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB225" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC225" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD225" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE225" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF225" t="s" s="2">
+        <v>831</v>
+      </c>
+      <c r="AG225" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH225" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI225" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ225" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK225" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL225" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM225" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN225" t="s" s="2">
+        <v>837</v>
+      </c>
+      <c r="AO225" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AP225" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="226" hidden="true">
+      <c r="A226" t="s" s="2">
+        <v>838</v>
+      </c>
+      <c r="B226" t="s" s="2">
+        <v>838</v>
+      </c>
+      <c r="C226" s="2"/>
+      <c r="D226" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E226" s="2"/>
+      <c r="F226" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G226" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H226" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I226" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J226" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K226" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="L226" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="M226" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="N226" s="2"/>
+      <c r="O226" s="2"/>
+      <c r="P226" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q226" s="2"/>
+      <c r="R226" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S226" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T226" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U226" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V226" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W226" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X226" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y226" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z226" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA226" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB226" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC226" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD226" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE226" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF226" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="AG226" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH226" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI226" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ226" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK226" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL226" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM226" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN226" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="AO226" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AP226" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="227" hidden="true">
+      <c r="A227" t="s" s="2">
+        <v>839</v>
+      </c>
+      <c r="B227" t="s" s="2">
+        <v>839</v>
+      </c>
+      <c r="C227" s="2"/>
+      <c r="D227" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="E227" s="2"/>
+      <c r="F227" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G227" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H227" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I227" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J227" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K227" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="L227" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="M227" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="N227" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="O227" s="2"/>
+      <c r="P227" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q227" s="2"/>
+      <c r="R227" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S227" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T227" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U227" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V227" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W227" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X227" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y227" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z227" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA227" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB227" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC227" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD227" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE227" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF227" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="AG227" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH227" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI227" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ227" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="AK227" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL227" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM227" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN227" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="AO227" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AP227" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="228" hidden="true">
+      <c r="A228" t="s" s="2">
+        <v>840</v>
+      </c>
+      <c r="B228" t="s" s="2">
+        <v>840</v>
+      </c>
+      <c r="C228" s="2"/>
+      <c r="D228" t="s" s="2">
+        <v>841</v>
+      </c>
+      <c r="E228" s="2"/>
+      <c r="F228" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G228" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H228" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I228" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="J228" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="K228" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="L228" t="s" s="2">
+        <v>842</v>
+      </c>
+      <c r="M228" t="s" s="2">
+        <v>843</v>
+      </c>
+      <c r="N228" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="O228" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="P228" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q228" s="2"/>
+      <c r="R228" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S228" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T228" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U228" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V228" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W228" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X228" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y228" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z228" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA228" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB228" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC228" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD228" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE228" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF228" t="s" s="2">
+        <v>844</v>
+      </c>
+      <c r="AG228" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH228" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI228" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ228" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="AK228" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL228" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM228" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN228" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="AO228" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AP228" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="229" hidden="true">
+      <c r="A229" t="s" s="2">
+        <v>845</v>
+      </c>
+      <c r="B229" t="s" s="2">
+        <v>845</v>
+      </c>
+      <c r="C229" s="2"/>
+      <c r="D229" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E229" s="2"/>
+      <c r="F229" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G229" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H229" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I229" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J229" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K229" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="L229" t="s" s="2">
+        <v>846</v>
+      </c>
+      <c r="M229" t="s" s="2">
+        <v>847</v>
+      </c>
+      <c r="N229" s="2"/>
+      <c r="O229" t="s" s="2">
+        <v>848</v>
+      </c>
+      <c r="P229" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q229" s="2"/>
+      <c r="R229" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S229" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T229" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U229" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V229" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W229" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X229" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="Y229" t="s" s="2">
+        <v>849</v>
+      </c>
+      <c r="Z229" t="s" s="2">
+        <v>850</v>
+      </c>
+      <c r="AA229" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB229" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC229" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD229" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE229" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF229" t="s" s="2">
+        <v>845</v>
+      </c>
+      <c r="AG229" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH229" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI229" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ229" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK229" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL229" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM229" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN229" t="s" s="2">
+        <v>851</v>
+      </c>
+      <c r="AO229" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AP229" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="230" hidden="true">
+      <c r="A230" t="s" s="2">
+        <v>852</v>
+      </c>
+      <c r="B230" t="s" s="2">
+        <v>852</v>
+      </c>
+      <c r="C230" s="2"/>
+      <c r="D230" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E230" s="2"/>
+      <c r="F230" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G230" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H230" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I230" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J230" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K230" t="s" s="2">
+        <v>853</v>
+      </c>
+      <c r="L230" t="s" s="2">
+        <v>854</v>
+      </c>
+      <c r="M230" t="s" s="2">
+        <v>855</v>
+      </c>
+      <c r="N230" s="2"/>
+      <c r="O230" t="s" s="2">
+        <v>856</v>
+      </c>
+      <c r="P230" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q230" s="2"/>
+      <c r="R230" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S230" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T230" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U230" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V230" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W230" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X230" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y230" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z230" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA230" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB230" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC230" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD230" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE230" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF230" t="s" s="2">
+        <v>852</v>
+      </c>
+      <c r="AG230" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH230" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI230" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ230" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK230" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL230" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM230" t="s" s="2">
+        <v>857</v>
+      </c>
+      <c r="AN230" t="s" s="2">
+        <v>858</v>
+      </c>
+      <c r="AO230" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AP230" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="231" hidden="true">
+      <c r="A231" t="s" s="2">
+        <v>859</v>
+      </c>
+      <c r="B231" t="s" s="2">
+        <v>859</v>
+      </c>
+      <c r="C231" s="2"/>
+      <c r="D231" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E231" s="2"/>
+      <c r="F231" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G231" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H231" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I231" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J231" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K231" t="s" s="2">
+        <v>697</v>
+      </c>
+      <c r="L231" t="s" s="2">
+        <v>860</v>
+      </c>
+      <c r="M231" t="s" s="2">
+        <v>699</v>
+      </c>
+      <c r="N231" s="2"/>
+      <c r="O231" t="s" s="2">
+        <v>861</v>
+      </c>
+      <c r="P231" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q231" s="2"/>
+      <c r="R231" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S231" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T231" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U231" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V231" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W231" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X231" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y231" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z231" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA231" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB231" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC231" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD231" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE231" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF231" t="s" s="2">
+        <v>859</v>
+      </c>
+      <c r="AG231" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH231" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI231" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="AJ231" t="s" s="2">
+        <v>862</v>
+      </c>
+      <c r="AK231" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL231" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM231" t="s" s="2">
+        <v>706</v>
+      </c>
+      <c r="AN231" t="s" s="2">
+        <v>707</v>
+      </c>
+      <c r="AO231" t="s" s="2">
+        <v>708</v>
+      </c>
+      <c r="AP231" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="232" hidden="true">
+      <c r="A232" t="s" s="2">
+        <v>863</v>
+      </c>
+      <c r="B232" t="s" s="2">
+        <v>863</v>
+      </c>
+      <c r="C232" s="2"/>
+      <c r="D232" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E232" s="2"/>
+      <c r="F232" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G232" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H232" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I232" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J232" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K232" t="s" s="2">
+        <v>864</v>
+      </c>
+      <c r="L232" t="s" s="2">
+        <v>865</v>
+      </c>
+      <c r="M232" t="s" s="2">
+        <v>792</v>
+      </c>
+      <c r="N232" t="s" s="2">
+        <v>793</v>
+      </c>
+      <c r="O232" t="s" s="2">
+        <v>866</v>
+      </c>
+      <c r="P232" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q232" s="2"/>
+      <c r="R232" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S232" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T232" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U232" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V232" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W232" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X232" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y232" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z232" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA232" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB232" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC232" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD232" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE232" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF232" t="s" s="2">
+        <v>863</v>
+      </c>
+      <c r="AG232" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH232" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI232" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="AJ232" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK232" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL232" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM232" t="s" s="2">
+        <v>798</v>
+      </c>
+      <c r="AN232" t="s" s="2">
+        <v>799</v>
+      </c>
+      <c r="AO232" t="s" s="2">
+        <v>800</v>
+      </c>
+      <c r="AP232" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="233" hidden="true">
+      <c r="A233" t="s" s="2">
+        <v>867</v>
+      </c>
+      <c r="B233" t="s" s="2">
+        <v>867</v>
+      </c>
+      <c r="C233" s="2"/>
+      <c r="D233" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E233" s="2"/>
+      <c r="F233" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G233" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H233" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="I233" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J233" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K233" t="s" s="2">
+        <v>868</v>
+      </c>
+      <c r="L233" t="s" s="2">
+        <v>869</v>
+      </c>
+      <c r="M233" t="s" s="2">
+        <v>870</v>
+      </c>
+      <c r="N233" s="2"/>
+      <c r="O233" t="s" s="2">
+        <v>871</v>
+      </c>
+      <c r="P233" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q233" s="2"/>
+      <c r="R233" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S233" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T233" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U233" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V233" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W233" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X233" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y233" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z233" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA233" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB233" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC233" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD233" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE233" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF233" t="s" s="2">
+        <v>867</v>
+      </c>
+      <c r="AG233" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH233" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI233" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ233" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK233" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL233" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM233" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN233" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="AO233" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AP233" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:AP220">
+  <autoFilter ref="A1:AP233">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -29437,7 +31070,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI219">
+  <conditionalFormatting sqref="A2:AI232">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/nriss-patch-telecom-slicing/ig/StructureDefinition-as-organization.xlsx
+++ b/nriss-patch-telecom-slicing/ig/StructureDefinition-as-organization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-13T08:40:33+00:00</t>
+    <t>2024-11-13T08:49:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nriss-patch-telecom-slicing/ig/StructureDefinition-as-organization.xlsx
+++ b/nriss-patch-telecom-slicing/ig/StructureDefinition-as-organization.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$233</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$220</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8890" uniqueCount="872">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8402" uniqueCount="845">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-13T08:49:07+00:00</t>
+    <t>2024-11-13T08:59:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2381,91 +2381,6 @@
   </si>
   <si>
     <t>EntiteGeographique.boiteLettreMSS</t>
-  </si>
-  <si>
-    <t>Organization.telecom:mailbox-mss.id</t>
-  </si>
-  <si>
-    <t>Organization.telecom:mailbox-mss.extension</t>
-  </si>
-  <si>
-    <t>Organization.telecom:mailbox-mss.extension:emailType</t>
-  </si>
-  <si>
-    <t>Organization.telecom:mailbox-mss.extension:emailType.id</t>
-  </si>
-  <si>
-    <t>Organization.telecom.extension.id</t>
-  </si>
-  <si>
-    <t>Organization.telecom:mailbox-mss.extension:emailType.extension</t>
-  </si>
-  <si>
-    <t>Organization.telecom.extension.extension</t>
-  </si>
-  <si>
-    <t>Organization.telecom:mailbox-mss.extension:emailType.url</t>
-  </si>
-  <si>
-    <t>Organization.telecom.extension.url</t>
-  </si>
-  <si>
-    <t>https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-contact-point-email-type</t>
-  </si>
-  <si>
-    <t>Organization.telecom:mailbox-mss.extension:emailType.value[x]</t>
-  </si>
-  <si>
-    <t>Organization.telecom.extension.value[x]</t>
-  </si>
-  <si>
-    <t>&lt;valueCoding xmlns="http://hl7.org/fhir"&gt;
-  &lt;system value="https://mos.esante.gouv.fr/NOS/TRE_R256-TypeMessagerie/FHIR/TRE-R256-TypeMessagerie"/&gt;
-  &lt;code value="MSSANTE"/&gt;
-&lt;/valueCoding&gt;</t>
-  </si>
-  <si>
-    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-email-type</t>
-  </si>
-  <si>
-    <t>Organization.telecom:mailbox-mss.extension:as-mailbox-mss-metadata</t>
-  </si>
-  <si>
-    <t>as-mailbox-mss-metadata</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/annuaire/StructureDefinition/as-ext-mailbox-mss-metadata}
-</t>
-  </si>
-  <si>
-    <t>Les attributs 'responsible' et 'phone' ne sont pas disponibles en accès libre.</t>
-  </si>
-  <si>
-    <t>Extension contenant les métadonnées de la mailbox mss.</t>
-  </si>
-  <si>
-    <t>Organization.telecom:mailbox-mss.system</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>Organization.telecom:mailbox-mss.value</t>
-  </si>
-  <si>
-    <t>Boîte Aux Lettres (BAL) MSS</t>
-  </si>
-  <si>
-    <t>Organization.telecom:mailbox-mss.use</t>
-  </si>
-  <si>
-    <t>Applications can assume that a contact is current unless it explicitly says that it is temporary or old.</t>
-  </si>
-  <si>
-    <t>Organization.telecom:mailbox-mss.rank</t>
-  </si>
-  <si>
-    <t>Organization.telecom:mailbox-mss.period</t>
   </si>
   <si>
     <t>Organization.address</t>
@@ -3049,7 +2964,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP233"/>
+  <dimension ref="A1:AP220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -27474,7 +27389,7 @@
         <v>762</v>
       </c>
       <c r="B204" t="s" s="2">
-        <v>709</v>
+        <v>762</v>
       </c>
       <c r="C204" s="2"/>
       <c r="D204" t="s" s="2">
@@ -27485,10 +27400,10 @@
         <v>80</v>
       </c>
       <c r="G204" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="H204" t="s" s="2">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="I204" t="s" s="2">
         <v>79</v>
@@ -27497,16 +27412,20 @@
         <v>79</v>
       </c>
       <c r="K204" t="s" s="2">
-        <v>105</v>
+        <v>763</v>
       </c>
       <c r="L204" t="s" s="2">
-        <v>106</v>
+        <v>764</v>
       </c>
       <c r="M204" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="N204" s="2"/>
-      <c r="O204" s="2"/>
+        <v>765</v>
+      </c>
+      <c r="N204" t="s" s="2">
+        <v>766</v>
+      </c>
+      <c r="O204" t="s" s="2">
+        <v>767</v>
+      </c>
       <c r="P204" t="s" s="2">
         <v>79</v>
       </c>
@@ -27554,34 +27473,34 @@
         <v>79</v>
       </c>
       <c r="AF204" t="s" s="2">
-        <v>108</v>
+        <v>762</v>
       </c>
       <c r="AG204" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH204" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="AI204" t="s" s="2">
-        <v>79</v>
+        <v>208</v>
       </c>
       <c r="AJ204" t="s" s="2">
-        <v>79</v>
+        <v>768</v>
       </c>
       <c r="AK204" t="s" s="2">
-        <v>79</v>
+        <v>769</v>
       </c>
       <c r="AL204" t="s" s="2">
-        <v>79</v>
+        <v>770</v>
       </c>
       <c r="AM204" t="s" s="2">
-        <v>79</v>
+        <v>771</v>
       </c>
       <c r="AN204" t="s" s="2">
-        <v>109</v>
+        <v>772</v>
       </c>
       <c r="AO204" t="s" s="2">
-        <v>79</v>
+        <v>773</v>
       </c>
       <c r="AP204" t="s" s="2">
         <v>79</v>
@@ -27589,10 +27508,10 @@
     </row>
     <row r="205" hidden="true">
       <c r="A205" t="s" s="2">
-        <v>763</v>
+        <v>774</v>
       </c>
       <c r="B205" t="s" s="2">
-        <v>710</v>
+        <v>774</v>
       </c>
       <c r="C205" s="2"/>
       <c r="D205" t="s" s="2">
@@ -27600,10 +27519,10 @@
       </c>
       <c r="E205" s="2"/>
       <c r="F205" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G205" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="H205" t="s" s="2">
         <v>79</v>
@@ -27612,19 +27531,21 @@
         <v>79</v>
       </c>
       <c r="J205" t="s" s="2">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="K205" t="s" s="2">
-        <v>112</v>
+        <v>775</v>
       </c>
       <c r="L205" t="s" s="2">
-        <v>201</v>
+        <v>776</v>
       </c>
       <c r="M205" t="s" s="2">
-        <v>202</v>
+        <v>777</v>
       </c>
       <c r="N205" s="2"/>
-      <c r="O205" s="2"/>
+      <c r="O205" t="s" s="2">
+        <v>778</v>
+      </c>
       <c r="P205" t="s" s="2">
         <v>79</v>
       </c>
@@ -27660,31 +27581,31 @@
         <v>79</v>
       </c>
       <c r="AB205" t="s" s="2">
-        <v>116</v>
+        <v>79</v>
       </c>
       <c r="AC205" t="s" s="2">
-        <v>117</v>
+        <v>79</v>
       </c>
       <c r="AD205" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE205" t="s" s="2">
-        <v>118</v>
+        <v>79</v>
       </c>
       <c r="AF205" t="s" s="2">
-        <v>119</v>
+        <v>774</v>
       </c>
       <c r="AG205" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH205" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="AI205" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ205" t="s" s="2">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="AK205" t="s" s="2">
         <v>79</v>
@@ -27693,13 +27614,13 @@
         <v>79</v>
       </c>
       <c r="AM205" t="s" s="2">
-        <v>79</v>
+        <v>531</v>
       </c>
       <c r="AN205" t="s" s="2">
-        <v>79</v>
+        <v>779</v>
       </c>
       <c r="AO205" t="s" s="2">
-        <v>79</v>
+        <v>109</v>
       </c>
       <c r="AP205" t="s" s="2">
         <v>79</v>
@@ -27707,20 +27628,18 @@
     </row>
     <row r="206" hidden="true">
       <c r="A206" t="s" s="2">
-        <v>764</v>
+        <v>780</v>
       </c>
       <c r="B206" t="s" s="2">
-        <v>710</v>
-      </c>
-      <c r="C206" t="s" s="2">
-        <v>712</v>
-      </c>
+        <v>780</v>
+      </c>
+      <c r="C206" s="2"/>
       <c r="D206" t="s" s="2">
         <v>79</v>
       </c>
       <c r="E206" s="2"/>
       <c r="F206" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G206" t="s" s="2">
         <v>91</v>
@@ -27735,13 +27654,13 @@
         <v>79</v>
       </c>
       <c r="K206" t="s" s="2">
-        <v>713</v>
+        <v>105</v>
       </c>
       <c r="L206" t="s" s="2">
-        <v>714</v>
+        <v>106</v>
       </c>
       <c r="M206" t="s" s="2">
-        <v>715</v>
+        <v>107</v>
       </c>
       <c r="N206" s="2"/>
       <c r="O206" s="2"/>
@@ -27792,19 +27711,19 @@
         <v>79</v>
       </c>
       <c r="AF206" t="s" s="2">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="AG206" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH206" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="AI206" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ206" t="s" s="2">
-        <v>120</v>
+        <v>79</v>
       </c>
       <c r="AK206" t="s" s="2">
         <v>79</v>
@@ -27816,7 +27735,7 @@
         <v>79</v>
       </c>
       <c r="AN206" t="s" s="2">
-        <v>79</v>
+        <v>109</v>
       </c>
       <c r="AO206" t="s" s="2">
         <v>79</v>
@@ -27827,21 +27746,21 @@
     </row>
     <row r="207" hidden="true">
       <c r="A207" t="s" s="2">
-        <v>765</v>
+        <v>781</v>
       </c>
       <c r="B207" t="s" s="2">
-        <v>766</v>
+        <v>781</v>
       </c>
       <c r="C207" s="2"/>
       <c r="D207" t="s" s="2">
-        <v>79</v>
+        <v>111</v>
       </c>
       <c r="E207" s="2"/>
       <c r="F207" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G207" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="H207" t="s" s="2">
         <v>79</v>
@@ -27853,15 +27772,17 @@
         <v>79</v>
       </c>
       <c r="K207" t="s" s="2">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="L207" t="s" s="2">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="M207" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="N207" s="2"/>
+        <v>114</v>
+      </c>
+      <c r="N207" t="s" s="2">
+        <v>115</v>
+      </c>
       <c r="O207" s="2"/>
       <c r="P207" t="s" s="2">
         <v>79</v>
@@ -27898,31 +27819,31 @@
         <v>79</v>
       </c>
       <c r="AB207" t="s" s="2">
-        <v>79</v>
+        <v>116</v>
       </c>
       <c r="AC207" t="s" s="2">
-        <v>79</v>
+        <v>117</v>
       </c>
       <c r="AD207" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE207" t="s" s="2">
-        <v>79</v>
+        <v>118</v>
       </c>
       <c r="AF207" t="s" s="2">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="AG207" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH207" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="AI207" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ207" t="s" s="2">
-        <v>79</v>
+        <v>120</v>
       </c>
       <c r="AK207" t="s" s="2">
         <v>79</v>
@@ -27945,10 +27866,10 @@
     </row>
     <row r="208" hidden="true">
       <c r="A208" t="s" s="2">
-        <v>767</v>
+        <v>782</v>
       </c>
       <c r="B208" t="s" s="2">
-        <v>768</v>
+        <v>782</v>
       </c>
       <c r="C208" s="2"/>
       <c r="D208" t="s" s="2">
@@ -27959,7 +27880,7 @@
         <v>80</v>
       </c>
       <c r="G208" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="H208" t="s" s="2">
         <v>79</v>
@@ -27968,18 +27889,20 @@
         <v>79</v>
       </c>
       <c r="J208" t="s" s="2">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="K208" t="s" s="2">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="L208" t="s" s="2">
-        <v>201</v>
+        <v>783</v>
       </c>
       <c r="M208" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="N208" s="2"/>
+        <v>784</v>
+      </c>
+      <c r="N208" t="s" s="2">
+        <v>785</v>
+      </c>
       <c r="O208" s="2"/>
       <c r="P208" t="s" s="2">
         <v>79</v>
@@ -28016,31 +27939,31 @@
         <v>79</v>
       </c>
       <c r="AB208" t="s" s="2">
-        <v>116</v>
+        <v>79</v>
       </c>
       <c r="AC208" t="s" s="2">
-        <v>117</v>
+        <v>79</v>
       </c>
       <c r="AD208" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE208" t="s" s="2">
-        <v>118</v>
+        <v>79</v>
       </c>
       <c r="AF208" t="s" s="2">
-        <v>119</v>
+        <v>786</v>
       </c>
       <c r="AG208" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH208" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="AI208" t="s" s="2">
-        <v>79</v>
+        <v>787</v>
       </c>
       <c r="AJ208" t="s" s="2">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="AK208" t="s" s="2">
         <v>79</v>
@@ -28052,7 +27975,7 @@
         <v>79</v>
       </c>
       <c r="AN208" t="s" s="2">
-        <v>79</v>
+        <v>199</v>
       </c>
       <c r="AO208" t="s" s="2">
         <v>79</v>
@@ -28063,10 +27986,10 @@
     </row>
     <row r="209" hidden="true">
       <c r="A209" t="s" s="2">
-        <v>769</v>
+        <v>788</v>
       </c>
       <c r="B209" t="s" s="2">
-        <v>770</v>
+        <v>788</v>
       </c>
       <c r="C209" s="2"/>
       <c r="D209" t="s" s="2">
@@ -28074,7 +27997,7 @@
       </c>
       <c r="E209" s="2"/>
       <c r="F209" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G209" t="s" s="2">
         <v>91</v>
@@ -28086,19 +28009,19 @@
         <v>79</v>
       </c>
       <c r="J209" t="s" s="2">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="K209" t="s" s="2">
         <v>138</v>
       </c>
       <c r="L209" t="s" s="2">
-        <v>223</v>
+        <v>789</v>
       </c>
       <c r="M209" t="s" s="2">
-        <v>224</v>
+        <v>790</v>
       </c>
       <c r="N209" t="s" s="2">
-        <v>225</v>
+        <v>791</v>
       </c>
       <c r="O209" s="2"/>
       <c r="P209" t="s" s="2">
@@ -28106,7 +28029,7 @@
       </c>
       <c r="Q209" s="2"/>
       <c r="R209" t="s" s="2">
-        <v>771</v>
+        <v>79</v>
       </c>
       <c r="S209" t="s" s="2">
         <v>79</v>
@@ -28124,13 +28047,11 @@
         <v>79</v>
       </c>
       <c r="X209" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y209" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="Y209" s="2"/>
       <c r="Z209" t="s" s="2">
-        <v>79</v>
+        <v>549</v>
       </c>
       <c r="AA209" t="s" s="2">
         <v>79</v>
@@ -28148,10 +28069,10 @@
         <v>79</v>
       </c>
       <c r="AF209" t="s" s="2">
-        <v>227</v>
+        <v>792</v>
       </c>
       <c r="AG209" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AH209" t="s" s="2">
         <v>91</v>
@@ -28160,7 +28081,7 @@
         <v>79</v>
       </c>
       <c r="AJ209" t="s" s="2">
-        <v>79</v>
+        <v>103</v>
       </c>
       <c r="AK209" t="s" s="2">
         <v>79</v>
@@ -28183,10 +28104,10 @@
     </row>
     <row r="210" hidden="true">
       <c r="A210" t="s" s="2">
-        <v>772</v>
+        <v>793</v>
       </c>
       <c r="B210" t="s" s="2">
-        <v>773</v>
+        <v>793</v>
       </c>
       <c r="C210" s="2"/>
       <c r="D210" t="s" s="2">
@@ -28206,18 +28127,20 @@
         <v>79</v>
       </c>
       <c r="J210" t="s" s="2">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="K210" t="s" s="2">
-        <v>154</v>
+        <v>303</v>
       </c>
       <c r="L210" t="s" s="2">
-        <v>231</v>
+        <v>794</v>
       </c>
       <c r="M210" t="s" s="2">
-        <v>568</v>
-      </c>
-      <c r="N210" s="2"/>
+        <v>795</v>
+      </c>
+      <c r="N210" t="s" s="2">
+        <v>796</v>
+      </c>
       <c r="O210" s="2"/>
       <c r="P210" t="s" s="2">
         <v>79</v>
@@ -28227,7 +28150,7 @@
         <v>79</v>
       </c>
       <c r="S210" t="s" s="2">
-        <v>774</v>
+        <v>79</v>
       </c>
       <c r="T210" t="s" s="2">
         <v>79</v>
@@ -28242,11 +28165,13 @@
         <v>79</v>
       </c>
       <c r="X210" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="Y210" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="Y210" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="Z210" t="s" s="2">
-        <v>775</v>
+        <v>79</v>
       </c>
       <c r="AA210" t="s" s="2">
         <v>79</v>
@@ -28264,7 +28189,7 @@
         <v>79</v>
       </c>
       <c r="AF210" t="s" s="2">
-        <v>233</v>
+        <v>797</v>
       </c>
       <c r="AG210" t="s" s="2">
         <v>80</v>
@@ -28288,7 +28213,7 @@
         <v>79</v>
       </c>
       <c r="AN210" t="s" s="2">
-        <v>199</v>
+        <v>798</v>
       </c>
       <c r="AO210" t="s" s="2">
         <v>79</v>
@@ -28299,14 +28224,12 @@
     </row>
     <row r="211" hidden="true">
       <c r="A211" t="s" s="2">
-        <v>776</v>
+        <v>799</v>
       </c>
       <c r="B211" t="s" s="2">
-        <v>710</v>
-      </c>
-      <c r="C211" t="s" s="2">
-        <v>777</v>
-      </c>
+        <v>799</v>
+      </c>
+      <c r="C211" s="2"/>
       <c r="D211" t="s" s="2">
         <v>79</v>
       </c>
@@ -28324,18 +28247,20 @@
         <v>79</v>
       </c>
       <c r="J211" t="s" s="2">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="K211" t="s" s="2">
-        <v>778</v>
+        <v>105</v>
       </c>
       <c r="L211" t="s" s="2">
-        <v>779</v>
+        <v>800</v>
       </c>
       <c r="M211" t="s" s="2">
-        <v>780</v>
-      </c>
-      <c r="N211" s="2"/>
+        <v>801</v>
+      </c>
+      <c r="N211" t="s" s="2">
+        <v>802</v>
+      </c>
       <c r="O211" s="2"/>
       <c r="P211" t="s" s="2">
         <v>79</v>
@@ -28384,19 +28309,19 @@
         <v>79</v>
       </c>
       <c r="AF211" t="s" s="2">
-        <v>119</v>
+        <v>803</v>
       </c>
       <c r="AG211" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH211" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="AI211" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ211" t="s" s="2">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="AK211" t="s" s="2">
         <v>79</v>
@@ -28408,7 +28333,7 @@
         <v>79</v>
       </c>
       <c r="AN211" t="s" s="2">
-        <v>79</v>
+        <v>199</v>
       </c>
       <c r="AO211" t="s" s="2">
         <v>79</v>
@@ -28419,10 +28344,10 @@
     </row>
     <row r="212" hidden="true">
       <c r="A212" t="s" s="2">
-        <v>781</v>
+        <v>804</v>
       </c>
       <c r="B212" t="s" s="2">
-        <v>716</v>
+        <v>804</v>
       </c>
       <c r="C212" s="2"/>
       <c r="D212" t="s" s="2">
@@ -28430,10 +28355,10 @@
       </c>
       <c r="E212" s="2"/>
       <c r="F212" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G212" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="H212" t="s" s="2">
         <v>79</v>
@@ -28442,19 +28367,23 @@
         <v>79</v>
       </c>
       <c r="J212" t="s" s="2">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="K212" t="s" s="2">
-        <v>176</v>
+        <v>805</v>
       </c>
       <c r="L212" t="s" s="2">
-        <v>717</v>
+        <v>806</v>
       </c>
       <c r="M212" t="s" s="2">
-        <v>718</v>
-      </c>
-      <c r="N212" s="2"/>
-      <c r="O212" s="2"/>
+        <v>807</v>
+      </c>
+      <c r="N212" t="s" s="2">
+        <v>808</v>
+      </c>
+      <c r="O212" t="s" s="2">
+        <v>809</v>
+      </c>
       <c r="P212" t="s" s="2">
         <v>79</v>
       </c>
@@ -28463,7 +28392,7 @@
         <v>79</v>
       </c>
       <c r="S212" t="s" s="2">
-        <v>782</v>
+        <v>79</v>
       </c>
       <c r="T212" t="s" s="2">
         <v>79</v>
@@ -28478,13 +28407,13 @@
         <v>79</v>
       </c>
       <c r="X212" t="s" s="2">
-        <v>330</v>
+        <v>79</v>
       </c>
       <c r="Y212" t="s" s="2">
-        <v>719</v>
+        <v>79</v>
       </c>
       <c r="Z212" t="s" s="2">
-        <v>720</v>
+        <v>79</v>
       </c>
       <c r="AA212" t="s" s="2">
         <v>79</v>
@@ -28502,16 +28431,16 @@
         <v>79</v>
       </c>
       <c r="AF212" t="s" s="2">
-        <v>721</v>
+        <v>804</v>
       </c>
       <c r="AG212" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH212" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="AI212" t="s" s="2">
-        <v>722</v>
+        <v>79</v>
       </c>
       <c r="AJ212" t="s" s="2">
         <v>103</v>
@@ -28523,13 +28452,13 @@
         <v>79</v>
       </c>
       <c r="AM212" t="s" s="2">
-        <v>723</v>
+        <v>79</v>
       </c>
       <c r="AN212" t="s" s="2">
-        <v>724</v>
+        <v>810</v>
       </c>
       <c r="AO212" t="s" s="2">
-        <v>725</v>
+        <v>79</v>
       </c>
       <c r="AP212" t="s" s="2">
         <v>79</v>
@@ -28537,10 +28466,10 @@
     </row>
     <row r="213" hidden="true">
       <c r="A213" t="s" s="2">
-        <v>783</v>
+        <v>811</v>
       </c>
       <c r="B213" t="s" s="2">
-        <v>726</v>
+        <v>811</v>
       </c>
       <c r="C213" s="2"/>
       <c r="D213" t="s" s="2">
@@ -28548,35 +28477,31 @@
       </c>
       <c r="E213" s="2"/>
       <c r="F213" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G213" t="s" s="2">
         <v>91</v>
       </c>
       <c r="H213" t="s" s="2">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="I213" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J213" t="s" s="2">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="K213" t="s" s="2">
         <v>105</v>
       </c>
       <c r="L213" t="s" s="2">
-        <v>784</v>
+        <v>106</v>
       </c>
       <c r="M213" t="s" s="2">
-        <v>728</v>
-      </c>
-      <c r="N213" t="s" s="2">
-        <v>729</v>
-      </c>
-      <c r="O213" t="s" s="2">
-        <v>730</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="N213" s="2"/>
+      <c r="O213" s="2"/>
       <c r="P213" t="s" s="2">
         <v>79</v>
       </c>
@@ -28624,7 +28549,7 @@
         <v>79</v>
       </c>
       <c r="AF213" t="s" s="2">
-        <v>731</v>
+        <v>108</v>
       </c>
       <c r="AG213" t="s" s="2">
         <v>80</v>
@@ -28636,7 +28561,7 @@
         <v>79</v>
       </c>
       <c r="AJ213" t="s" s="2">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="AK213" t="s" s="2">
         <v>79</v>
@@ -28645,13 +28570,13 @@
         <v>79</v>
       </c>
       <c r="AM213" t="s" s="2">
-        <v>732</v>
+        <v>79</v>
       </c>
       <c r="AN213" t="s" s="2">
-        <v>733</v>
+        <v>109</v>
       </c>
       <c r="AO213" t="s" s="2">
-        <v>368</v>
+        <v>79</v>
       </c>
       <c r="AP213" t="s" s="2">
         <v>79</v>
@@ -28659,46 +28584,44 @@
     </row>
     <row r="214" hidden="true">
       <c r="A214" t="s" s="2">
-        <v>785</v>
+        <v>812</v>
       </c>
       <c r="B214" t="s" s="2">
-        <v>734</v>
+        <v>812</v>
       </c>
       <c r="C214" s="2"/>
       <c r="D214" t="s" s="2">
-        <v>79</v>
+        <v>111</v>
       </c>
       <c r="E214" s="2"/>
       <c r="F214" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G214" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="H214" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I214" t="s" s="2">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="J214" t="s" s="2">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="K214" t="s" s="2">
-        <v>176</v>
+        <v>112</v>
       </c>
       <c r="L214" t="s" s="2">
-        <v>735</v>
+        <v>113</v>
       </c>
       <c r="M214" t="s" s="2">
-        <v>736</v>
+        <v>114</v>
       </c>
       <c r="N214" t="s" s="2">
-        <v>786</v>
-      </c>
-      <c r="O214" t="s" s="2">
-        <v>738</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="O214" s="2"/>
       <c r="P214" t="s" s="2">
         <v>79</v>
       </c>
@@ -28722,13 +28645,13 @@
         <v>79</v>
       </c>
       <c r="X214" t="s" s="2">
-        <v>330</v>
+        <v>79</v>
       </c>
       <c r="Y214" t="s" s="2">
-        <v>739</v>
+        <v>79</v>
       </c>
       <c r="Z214" t="s" s="2">
-        <v>740</v>
+        <v>79</v>
       </c>
       <c r="AA214" t="s" s="2">
         <v>79</v>
@@ -28746,19 +28669,19 @@
         <v>79</v>
       </c>
       <c r="AF214" t="s" s="2">
-        <v>741</v>
+        <v>119</v>
       </c>
       <c r="AG214" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH214" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="AI214" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ214" t="s" s="2">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="AK214" t="s" s="2">
         <v>79</v>
@@ -28767,13 +28690,13 @@
         <v>79</v>
       </c>
       <c r="AM214" t="s" s="2">
-        <v>742</v>
+        <v>79</v>
       </c>
       <c r="AN214" t="s" s="2">
-        <v>743</v>
+        <v>109</v>
       </c>
       <c r="AO214" t="s" s="2">
-        <v>744</v>
+        <v>79</v>
       </c>
       <c r="AP214" t="s" s="2">
         <v>79</v>
@@ -28781,44 +28704,46 @@
     </row>
     <row r="215" hidden="true">
       <c r="A215" t="s" s="2">
-        <v>787</v>
+        <v>813</v>
       </c>
       <c r="B215" t="s" s="2">
-        <v>745</v>
+        <v>813</v>
       </c>
       <c r="C215" s="2"/>
       <c r="D215" t="s" s="2">
-        <v>79</v>
+        <v>814</v>
       </c>
       <c r="E215" s="2"/>
       <c r="F215" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G215" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="H215" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I215" t="s" s="2">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="J215" t="s" s="2">
         <v>92</v>
       </c>
       <c r="K215" t="s" s="2">
-        <v>746</v>
+        <v>112</v>
       </c>
       <c r="L215" t="s" s="2">
-        <v>747</v>
+        <v>815</v>
       </c>
       <c r="M215" t="s" s="2">
-        <v>748</v>
+        <v>816</v>
       </c>
       <c r="N215" t="s" s="2">
-        <v>749</v>
-      </c>
-      <c r="O215" s="2"/>
+        <v>115</v>
+      </c>
+      <c r="O215" t="s" s="2">
+        <v>300</v>
+      </c>
       <c r="P215" t="s" s="2">
         <v>79</v>
       </c>
@@ -28866,19 +28791,19 @@
         <v>79</v>
       </c>
       <c r="AF215" t="s" s="2">
-        <v>750</v>
+        <v>817</v>
       </c>
       <c r="AG215" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH215" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="AI215" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ215" t="s" s="2">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="AK215" t="s" s="2">
         <v>79</v>
@@ -28887,10 +28812,10 @@
         <v>79</v>
       </c>
       <c r="AM215" t="s" s="2">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="AN215" t="s" s="2">
-        <v>109</v>
+        <v>199</v>
       </c>
       <c r="AO215" t="s" s="2">
         <v>79</v>
@@ -28901,10 +28826,10 @@
     </row>
     <row r="216" hidden="true">
       <c r="A216" t="s" s="2">
-        <v>788</v>
+        <v>818</v>
       </c>
       <c r="B216" t="s" s="2">
-        <v>751</v>
+        <v>818</v>
       </c>
       <c r="C216" s="2"/>
       <c r="D216" t="s" s="2">
@@ -28924,19 +28849,21 @@
         <v>79</v>
       </c>
       <c r="J216" t="s" s="2">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="K216" t="s" s="2">
-        <v>230</v>
+        <v>337</v>
       </c>
       <c r="L216" t="s" s="2">
-        <v>752</v>
+        <v>819</v>
       </c>
       <c r="M216" t="s" s="2">
-        <v>753</v>
+        <v>820</v>
       </c>
       <c r="N216" s="2"/>
-      <c r="O216" s="2"/>
+      <c r="O216" t="s" s="2">
+        <v>821</v>
+      </c>
       <c r="P216" t="s" s="2">
         <v>79</v>
       </c>
@@ -28960,13 +28887,13 @@
         <v>79</v>
       </c>
       <c r="X216" t="s" s="2">
-        <v>79</v>
+        <v>158</v>
       </c>
       <c r="Y216" t="s" s="2">
-        <v>79</v>
+        <v>822</v>
       </c>
       <c r="Z216" t="s" s="2">
-        <v>79</v>
+        <v>823</v>
       </c>
       <c r="AA216" t="s" s="2">
         <v>79</v>
@@ -28984,7 +28911,7 @@
         <v>79</v>
       </c>
       <c r="AF216" t="s" s="2">
-        <v>754</v>
+        <v>818</v>
       </c>
       <c r="AG216" t="s" s="2">
         <v>80</v>
@@ -29005,13 +28932,13 @@
         <v>79</v>
       </c>
       <c r="AM216" t="s" s="2">
-        <v>199</v>
+        <v>79</v>
       </c>
       <c r="AN216" t="s" s="2">
-        <v>755</v>
+        <v>824</v>
       </c>
       <c r="AO216" t="s" s="2">
-        <v>376</v>
+        <v>79</v>
       </c>
       <c r="AP216" t="s" s="2">
         <v>79</v>
@@ -29019,10 +28946,10 @@
     </row>
     <row r="217" hidden="true">
       <c r="A217" t="s" s="2">
-        <v>789</v>
+        <v>825</v>
       </c>
       <c r="B217" t="s" s="2">
-        <v>789</v>
+        <v>825</v>
       </c>
       <c r="C217" s="2"/>
       <c r="D217" t="s" s="2">
@@ -29033,10 +28960,10 @@
         <v>80</v>
       </c>
       <c r="G217" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="H217" t="s" s="2">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="I217" t="s" s="2">
         <v>79</v>
@@ -29045,19 +28972,17 @@
         <v>79</v>
       </c>
       <c r="K217" t="s" s="2">
-        <v>790</v>
+        <v>826</v>
       </c>
       <c r="L217" t="s" s="2">
-        <v>791</v>
+        <v>827</v>
       </c>
       <c r="M217" t="s" s="2">
-        <v>792</v>
-      </c>
-      <c r="N217" t="s" s="2">
-        <v>793</v>
-      </c>
+        <v>828</v>
+      </c>
+      <c r="N217" s="2"/>
       <c r="O217" t="s" s="2">
-        <v>794</v>
+        <v>829</v>
       </c>
       <c r="P217" t="s" s="2">
         <v>79</v>
@@ -29106,34 +29031,34 @@
         <v>79</v>
       </c>
       <c r="AF217" t="s" s="2">
-        <v>789</v>
+        <v>825</v>
       </c>
       <c r="AG217" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH217" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="AI217" t="s" s="2">
-        <v>208</v>
+        <v>79</v>
       </c>
       <c r="AJ217" t="s" s="2">
-        <v>795</v>
+        <v>103</v>
       </c>
       <c r="AK217" t="s" s="2">
-        <v>796</v>
+        <v>79</v>
       </c>
       <c r="AL217" t="s" s="2">
-        <v>797</v>
+        <v>79</v>
       </c>
       <c r="AM217" t="s" s="2">
-        <v>798</v>
+        <v>830</v>
       </c>
       <c r="AN217" t="s" s="2">
-        <v>799</v>
+        <v>831</v>
       </c>
       <c r="AO217" t="s" s="2">
-        <v>800</v>
+        <v>79</v>
       </c>
       <c r="AP217" t="s" s="2">
         <v>79</v>
@@ -29141,10 +29066,10 @@
     </row>
     <row r="218" hidden="true">
       <c r="A218" t="s" s="2">
-        <v>801</v>
+        <v>832</v>
       </c>
       <c r="B218" t="s" s="2">
-        <v>801</v>
+        <v>832</v>
       </c>
       <c r="C218" s="2"/>
       <c r="D218" t="s" s="2">
@@ -29155,7 +29080,7 @@
         <v>80</v>
       </c>
       <c r="G218" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="H218" t="s" s="2">
         <v>79</v>
@@ -29164,20 +29089,20 @@
         <v>79</v>
       </c>
       <c r="J218" t="s" s="2">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="K218" t="s" s="2">
-        <v>802</v>
+        <v>697</v>
       </c>
       <c r="L218" t="s" s="2">
-        <v>803</v>
+        <v>833</v>
       </c>
       <c r="M218" t="s" s="2">
-        <v>804</v>
+        <v>699</v>
       </c>
       <c r="N218" s="2"/>
       <c r="O218" t="s" s="2">
-        <v>805</v>
+        <v>834</v>
       </c>
       <c r="P218" t="s" s="2">
         <v>79</v>
@@ -29226,19 +29151,19 @@
         <v>79</v>
       </c>
       <c r="AF218" t="s" s="2">
-        <v>801</v>
+        <v>832</v>
       </c>
       <c r="AG218" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH218" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="AI218" t="s" s="2">
-        <v>79</v>
+        <v>208</v>
       </c>
       <c r="AJ218" t="s" s="2">
-        <v>103</v>
+        <v>835</v>
       </c>
       <c r="AK218" t="s" s="2">
         <v>79</v>
@@ -29247,13 +29172,13 @@
         <v>79</v>
       </c>
       <c r="AM218" t="s" s="2">
-        <v>531</v>
+        <v>706</v>
       </c>
       <c r="AN218" t="s" s="2">
-        <v>806</v>
+        <v>707</v>
       </c>
       <c r="AO218" t="s" s="2">
-        <v>109</v>
+        <v>708</v>
       </c>
       <c r="AP218" t="s" s="2">
         <v>79</v>
@@ -29261,10 +29186,10 @@
     </row>
     <row r="219" hidden="true">
       <c r="A219" t="s" s="2">
-        <v>807</v>
+        <v>836</v>
       </c>
       <c r="B219" t="s" s="2">
-        <v>807</v>
+        <v>836</v>
       </c>
       <c r="C219" s="2"/>
       <c r="D219" t="s" s="2">
@@ -29287,16 +29212,20 @@
         <v>79</v>
       </c>
       <c r="K219" t="s" s="2">
-        <v>105</v>
+        <v>837</v>
       </c>
       <c r="L219" t="s" s="2">
-        <v>106</v>
+        <v>838</v>
       </c>
       <c r="M219" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="N219" s="2"/>
-      <c r="O219" s="2"/>
+        <v>765</v>
+      </c>
+      <c r="N219" t="s" s="2">
+        <v>766</v>
+      </c>
+      <c r="O219" t="s" s="2">
+        <v>839</v>
+      </c>
       <c r="P219" t="s" s="2">
         <v>79</v>
       </c>
@@ -29344,7 +29273,7 @@
         <v>79</v>
       </c>
       <c r="AF219" t="s" s="2">
-        <v>108</v>
+        <v>836</v>
       </c>
       <c r="AG219" t="s" s="2">
         <v>80</v>
@@ -29353,10 +29282,10 @@
         <v>91</v>
       </c>
       <c r="AI219" t="s" s="2">
-        <v>79</v>
+        <v>208</v>
       </c>
       <c r="AJ219" t="s" s="2">
-        <v>79</v>
+        <v>103</v>
       </c>
       <c r="AK219" t="s" s="2">
         <v>79</v>
@@ -29365,13 +29294,13 @@
         <v>79</v>
       </c>
       <c r="AM219" t="s" s="2">
-        <v>79</v>
+        <v>771</v>
       </c>
       <c r="AN219" t="s" s="2">
-        <v>109</v>
+        <v>772</v>
       </c>
       <c r="AO219" t="s" s="2">
-        <v>79</v>
+        <v>773</v>
       </c>
       <c r="AP219" t="s" s="2">
         <v>79</v>
@@ -29379,14 +29308,14 @@
     </row>
     <row r="220" hidden="true">
       <c r="A220" t="s" s="2">
-        <v>808</v>
+        <v>840</v>
       </c>
       <c r="B220" t="s" s="2">
-        <v>808</v>
+        <v>840</v>
       </c>
       <c r="C220" s="2"/>
       <c r="D220" t="s" s="2">
-        <v>111</v>
+        <v>79</v>
       </c>
       <c r="E220" s="2"/>
       <c r="F220" t="s" s="2">
@@ -29396,7 +29325,7 @@
         <v>81</v>
       </c>
       <c r="H220" t="s" s="2">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="I220" t="s" s="2">
         <v>79</v>
@@ -29405,18 +29334,18 @@
         <v>79</v>
       </c>
       <c r="K220" t="s" s="2">
-        <v>112</v>
+        <v>841</v>
       </c>
       <c r="L220" t="s" s="2">
-        <v>113</v>
+        <v>842</v>
       </c>
       <c r="M220" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="N220" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="O220" s="2"/>
+        <v>843</v>
+      </c>
+      <c r="N220" s="2"/>
+      <c r="O220" t="s" s="2">
+        <v>844</v>
+      </c>
       <c r="P220" t="s" s="2">
         <v>79</v>
       </c>
@@ -29452,19 +29381,19 @@
         <v>79</v>
       </c>
       <c r="AB220" t="s" s="2">
-        <v>116</v>
+        <v>79</v>
       </c>
       <c r="AC220" t="s" s="2">
-        <v>117</v>
+        <v>79</v>
       </c>
       <c r="AD220" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE220" t="s" s="2">
-        <v>118</v>
+        <v>79</v>
       </c>
       <c r="AF220" t="s" s="2">
-        <v>119</v>
+        <v>840</v>
       </c>
       <c r="AG220" t="s" s="2">
         <v>80</v>
@@ -29476,7 +29405,7 @@
         <v>79</v>
       </c>
       <c r="AJ220" t="s" s="2">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="AK220" t="s" s="2">
         <v>79</v>
@@ -29497,1570 +29426,8 @@
         <v>79</v>
       </c>
     </row>
-    <row r="221" hidden="true">
-      <c r="A221" t="s" s="2">
-        <v>809</v>
-      </c>
-      <c r="B221" t="s" s="2">
-        <v>809</v>
-      </c>
-      <c r="C221" s="2"/>
-      <c r="D221" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="E221" s="2"/>
-      <c r="F221" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G221" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="H221" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I221" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J221" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="K221" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="L221" t="s" s="2">
-        <v>810</v>
-      </c>
-      <c r="M221" t="s" s="2">
-        <v>811</v>
-      </c>
-      <c r="N221" t="s" s="2">
-        <v>812</v>
-      </c>
-      <c r="O221" s="2"/>
-      <c r="P221" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q221" s="2"/>
-      <c r="R221" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S221" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T221" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U221" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V221" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W221" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X221" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y221" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z221" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA221" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB221" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC221" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD221" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE221" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF221" t="s" s="2">
-        <v>813</v>
-      </c>
-      <c r="AG221" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH221" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AI221" t="s" s="2">
-        <v>814</v>
-      </c>
-      <c r="AJ221" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AK221" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL221" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM221" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN221" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="AO221" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AP221" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="222" hidden="true">
-      <c r="A222" t="s" s="2">
-        <v>815</v>
-      </c>
-      <c r="B222" t="s" s="2">
-        <v>815</v>
-      </c>
-      <c r="C222" s="2"/>
-      <c r="D222" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="E222" s="2"/>
-      <c r="F222" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G222" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="H222" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I222" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J222" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="K222" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="L222" t="s" s="2">
-        <v>816</v>
-      </c>
-      <c r="M222" t="s" s="2">
-        <v>817</v>
-      </c>
-      <c r="N222" t="s" s="2">
-        <v>818</v>
-      </c>
-      <c r="O222" s="2"/>
-      <c r="P222" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q222" s="2"/>
-      <c r="R222" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S222" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T222" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U222" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V222" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W222" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X222" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="Y222" s="2"/>
-      <c r="Z222" t="s" s="2">
-        <v>549</v>
-      </c>
-      <c r="AA222" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB222" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC222" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD222" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE222" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF222" t="s" s="2">
-        <v>819</v>
-      </c>
-      <c r="AG222" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH222" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AI222" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ222" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AK222" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL222" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM222" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN222" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="AO222" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AP222" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="223" hidden="true">
-      <c r="A223" t="s" s="2">
-        <v>820</v>
-      </c>
-      <c r="B223" t="s" s="2">
-        <v>820</v>
-      </c>
-      <c r="C223" s="2"/>
-      <c r="D223" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="E223" s="2"/>
-      <c r="F223" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G223" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="H223" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I223" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J223" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="K223" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="L223" t="s" s="2">
-        <v>821</v>
-      </c>
-      <c r="M223" t="s" s="2">
-        <v>822</v>
-      </c>
-      <c r="N223" t="s" s="2">
-        <v>823</v>
-      </c>
-      <c r="O223" s="2"/>
-      <c r="P223" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q223" s="2"/>
-      <c r="R223" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S223" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T223" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U223" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V223" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W223" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X223" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y223" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z223" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA223" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB223" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC223" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD223" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE223" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF223" t="s" s="2">
-        <v>824</v>
-      </c>
-      <c r="AG223" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH223" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AI223" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ223" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AK223" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL223" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM223" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN223" t="s" s="2">
-        <v>825</v>
-      </c>
-      <c r="AO223" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AP223" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="224" hidden="true">
-      <c r="A224" t="s" s="2">
-        <v>826</v>
-      </c>
-      <c r="B224" t="s" s="2">
-        <v>826</v>
-      </c>
-      <c r="C224" s="2"/>
-      <c r="D224" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="E224" s="2"/>
-      <c r="F224" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G224" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="H224" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I224" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J224" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="K224" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="L224" t="s" s="2">
-        <v>827</v>
-      </c>
-      <c r="M224" t="s" s="2">
-        <v>828</v>
-      </c>
-      <c r="N224" t="s" s="2">
-        <v>829</v>
-      </c>
-      <c r="O224" s="2"/>
-      <c r="P224" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q224" s="2"/>
-      <c r="R224" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S224" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T224" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U224" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V224" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W224" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X224" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y224" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z224" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA224" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB224" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC224" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD224" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE224" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF224" t="s" s="2">
-        <v>830</v>
-      </c>
-      <c r="AG224" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH224" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AI224" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ224" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AK224" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL224" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM224" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN224" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="AO224" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AP224" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="225" hidden="true">
-      <c r="A225" t="s" s="2">
-        <v>831</v>
-      </c>
-      <c r="B225" t="s" s="2">
-        <v>831</v>
-      </c>
-      <c r="C225" s="2"/>
-      <c r="D225" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="E225" s="2"/>
-      <c r="F225" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G225" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H225" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I225" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J225" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="K225" t="s" s="2">
-        <v>832</v>
-      </c>
-      <c r="L225" t="s" s="2">
-        <v>833</v>
-      </c>
-      <c r="M225" t="s" s="2">
-        <v>834</v>
-      </c>
-      <c r="N225" t="s" s="2">
-        <v>835</v>
-      </c>
-      <c r="O225" t="s" s="2">
-        <v>836</v>
-      </c>
-      <c r="P225" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q225" s="2"/>
-      <c r="R225" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S225" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T225" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U225" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V225" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W225" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X225" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y225" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z225" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA225" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB225" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC225" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD225" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE225" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF225" t="s" s="2">
-        <v>831</v>
-      </c>
-      <c r="AG225" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH225" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI225" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ225" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AK225" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL225" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM225" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN225" t="s" s="2">
-        <v>837</v>
-      </c>
-      <c r="AO225" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AP225" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="226" hidden="true">
-      <c r="A226" t="s" s="2">
-        <v>838</v>
-      </c>
-      <c r="B226" t="s" s="2">
-        <v>838</v>
-      </c>
-      <c r="C226" s="2"/>
-      <c r="D226" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="E226" s="2"/>
-      <c r="F226" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G226" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="H226" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I226" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J226" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="K226" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="L226" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="M226" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="N226" s="2"/>
-      <c r="O226" s="2"/>
-      <c r="P226" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q226" s="2"/>
-      <c r="R226" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S226" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T226" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U226" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V226" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W226" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X226" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y226" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z226" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA226" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB226" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC226" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD226" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE226" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF226" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="AG226" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH226" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AI226" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ226" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK226" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL226" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM226" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN226" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="AO226" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AP226" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="227" hidden="true">
-      <c r="A227" t="s" s="2">
-        <v>839</v>
-      </c>
-      <c r="B227" t="s" s="2">
-        <v>839</v>
-      </c>
-      <c r="C227" s="2"/>
-      <c r="D227" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="E227" s="2"/>
-      <c r="F227" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G227" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H227" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I227" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J227" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="K227" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="L227" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="M227" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="N227" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="O227" s="2"/>
-      <c r="P227" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q227" s="2"/>
-      <c r="R227" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S227" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T227" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U227" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V227" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W227" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X227" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y227" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z227" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA227" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB227" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC227" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD227" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE227" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF227" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="AG227" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH227" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI227" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ227" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="AK227" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL227" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM227" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN227" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="AO227" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AP227" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="228" hidden="true">
-      <c r="A228" t="s" s="2">
-        <v>840</v>
-      </c>
-      <c r="B228" t="s" s="2">
-        <v>840</v>
-      </c>
-      <c r="C228" s="2"/>
-      <c r="D228" t="s" s="2">
-        <v>841</v>
-      </c>
-      <c r="E228" s="2"/>
-      <c r="F228" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G228" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H228" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I228" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="J228" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="K228" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="L228" t="s" s="2">
-        <v>842</v>
-      </c>
-      <c r="M228" t="s" s="2">
-        <v>843</v>
-      </c>
-      <c r="N228" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="O228" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="P228" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q228" s="2"/>
-      <c r="R228" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S228" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T228" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U228" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V228" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W228" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X228" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y228" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z228" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA228" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB228" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC228" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD228" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE228" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF228" t="s" s="2">
-        <v>844</v>
-      </c>
-      <c r="AG228" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH228" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI228" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ228" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="AK228" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL228" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM228" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN228" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="AO228" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AP228" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="229" hidden="true">
-      <c r="A229" t="s" s="2">
-        <v>845</v>
-      </c>
-      <c r="B229" t="s" s="2">
-        <v>845</v>
-      </c>
-      <c r="C229" s="2"/>
-      <c r="D229" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="E229" s="2"/>
-      <c r="F229" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G229" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="H229" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I229" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J229" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="K229" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="L229" t="s" s="2">
-        <v>846</v>
-      </c>
-      <c r="M229" t="s" s="2">
-        <v>847</v>
-      </c>
-      <c r="N229" s="2"/>
-      <c r="O229" t="s" s="2">
-        <v>848</v>
-      </c>
-      <c r="P229" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q229" s="2"/>
-      <c r="R229" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S229" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T229" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U229" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V229" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W229" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X229" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="Y229" t="s" s="2">
-        <v>849</v>
-      </c>
-      <c r="Z229" t="s" s="2">
-        <v>850</v>
-      </c>
-      <c r="AA229" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB229" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC229" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD229" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE229" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF229" t="s" s="2">
-        <v>845</v>
-      </c>
-      <c r="AG229" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH229" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AI229" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ229" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AK229" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL229" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM229" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN229" t="s" s="2">
-        <v>851</v>
-      </c>
-      <c r="AO229" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AP229" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="230" hidden="true">
-      <c r="A230" t="s" s="2">
-        <v>852</v>
-      </c>
-      <c r="B230" t="s" s="2">
-        <v>852</v>
-      </c>
-      <c r="C230" s="2"/>
-      <c r="D230" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="E230" s="2"/>
-      <c r="F230" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G230" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="H230" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I230" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J230" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="K230" t="s" s="2">
-        <v>853</v>
-      </c>
-      <c r="L230" t="s" s="2">
-        <v>854</v>
-      </c>
-      <c r="M230" t="s" s="2">
-        <v>855</v>
-      </c>
-      <c r="N230" s="2"/>
-      <c r="O230" t="s" s="2">
-        <v>856</v>
-      </c>
-      <c r="P230" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q230" s="2"/>
-      <c r="R230" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S230" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T230" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U230" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V230" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W230" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X230" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y230" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z230" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA230" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB230" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC230" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD230" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE230" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF230" t="s" s="2">
-        <v>852</v>
-      </c>
-      <c r="AG230" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH230" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AI230" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ230" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AK230" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL230" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM230" t="s" s="2">
-        <v>857</v>
-      </c>
-      <c r="AN230" t="s" s="2">
-        <v>858</v>
-      </c>
-      <c r="AO230" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AP230" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="231" hidden="true">
-      <c r="A231" t="s" s="2">
-        <v>859</v>
-      </c>
-      <c r="B231" t="s" s="2">
-        <v>859</v>
-      </c>
-      <c r="C231" s="2"/>
-      <c r="D231" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="E231" s="2"/>
-      <c r="F231" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G231" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H231" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I231" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J231" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="K231" t="s" s="2">
-        <v>697</v>
-      </c>
-      <c r="L231" t="s" s="2">
-        <v>860</v>
-      </c>
-      <c r="M231" t="s" s="2">
-        <v>699</v>
-      </c>
-      <c r="N231" s="2"/>
-      <c r="O231" t="s" s="2">
-        <v>861</v>
-      </c>
-      <c r="P231" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q231" s="2"/>
-      <c r="R231" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S231" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T231" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U231" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V231" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W231" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X231" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y231" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z231" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA231" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB231" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC231" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD231" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE231" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF231" t="s" s="2">
-        <v>859</v>
-      </c>
-      <c r="AG231" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH231" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI231" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="AJ231" t="s" s="2">
-        <v>862</v>
-      </c>
-      <c r="AK231" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL231" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM231" t="s" s="2">
-        <v>706</v>
-      </c>
-      <c r="AN231" t="s" s="2">
-        <v>707</v>
-      </c>
-      <c r="AO231" t="s" s="2">
-        <v>708</v>
-      </c>
-      <c r="AP231" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="232" hidden="true">
-      <c r="A232" t="s" s="2">
-        <v>863</v>
-      </c>
-      <c r="B232" t="s" s="2">
-        <v>863</v>
-      </c>
-      <c r="C232" s="2"/>
-      <c r="D232" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="E232" s="2"/>
-      <c r="F232" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G232" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="H232" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I232" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J232" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="K232" t="s" s="2">
-        <v>864</v>
-      </c>
-      <c r="L232" t="s" s="2">
-        <v>865</v>
-      </c>
-      <c r="M232" t="s" s="2">
-        <v>792</v>
-      </c>
-      <c r="N232" t="s" s="2">
-        <v>793</v>
-      </c>
-      <c r="O232" t="s" s="2">
-        <v>866</v>
-      </c>
-      <c r="P232" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q232" s="2"/>
-      <c r="R232" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S232" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T232" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U232" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V232" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W232" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X232" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y232" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z232" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA232" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB232" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC232" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD232" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE232" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF232" t="s" s="2">
-        <v>863</v>
-      </c>
-      <c r="AG232" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH232" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AI232" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="AJ232" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AK232" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL232" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM232" t="s" s="2">
-        <v>798</v>
-      </c>
-      <c r="AN232" t="s" s="2">
-        <v>799</v>
-      </c>
-      <c r="AO232" t="s" s="2">
-        <v>800</v>
-      </c>
-      <c r="AP232" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="233" hidden="true">
-      <c r="A233" t="s" s="2">
-        <v>867</v>
-      </c>
-      <c r="B233" t="s" s="2">
-        <v>867</v>
-      </c>
-      <c r="C233" s="2"/>
-      <c r="D233" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="E233" s="2"/>
-      <c r="F233" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G233" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H233" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="I233" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J233" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="K233" t="s" s="2">
-        <v>868</v>
-      </c>
-      <c r="L233" t="s" s="2">
-        <v>869</v>
-      </c>
-      <c r="M233" t="s" s="2">
-        <v>870</v>
-      </c>
-      <c r="N233" s="2"/>
-      <c r="O233" t="s" s="2">
-        <v>871</v>
-      </c>
-      <c r="P233" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q233" s="2"/>
-      <c r="R233" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S233" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T233" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U233" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V233" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W233" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X233" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y233" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z233" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA233" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB233" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC233" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD233" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE233" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF233" t="s" s="2">
-        <v>867</v>
-      </c>
-      <c r="AG233" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH233" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI233" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ233" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AK233" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL233" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM233" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN233" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="AO233" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AP233" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:AP233">
+  <autoFilter ref="A1:AP220">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -31070,7 +29437,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI232">
+  <conditionalFormatting sqref="A2:AI219">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/nriss-patch-telecom-slicing/ig/StructureDefinition-as-organization.xlsx
+++ b/nriss-patch-telecom-slicing/ig/StructureDefinition-as-organization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-13T08:59:38+00:00</t>
+    <t>2024-11-13T09:09:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nriss-patch-telecom-slicing/ig/StructureDefinition-as-organization.xlsx
+++ b/nriss-patch-telecom-slicing/ig/StructureDefinition-as-organization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-13T09:09:03+00:00</t>
+    <t>2024-11-13T09:11:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nriss-patch-telecom-slicing/ig/StructureDefinition-as-organization.xlsx
+++ b/nriss-patch-telecom-slicing/ig/StructureDefinition-as-organization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-13T09:11:42+00:00</t>
+    <t>2024-11-13T09:14:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nriss-patch-telecom-slicing/ig/StructureDefinition-as-organization.xlsx
+++ b/nriss-patch-telecom-slicing/ig/StructureDefinition-as-organization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-13T09:14:39+00:00</t>
+    <t>2024-11-13T09:36:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nriss-patch-telecom-slicing/ig/StructureDefinition-as-organization.xlsx
+++ b/nriss-patch-telecom-slicing/ig/StructureDefinition-as-organization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-13T09:36:20+00:00</t>
+    <t>2024-11-13T09:52:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
